--- a/data/panelapp/au/Immunological disorders_SuperPanel.xlsx
+++ b/data/panelapp/au/Immunological disorders_SuperPanel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E644"/>
+  <dimension ref="A1:F644"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>panel</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>time_taken</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -479,6 +484,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443805</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -504,6 +514,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443816</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -529,6 +544,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443820</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,6 +574,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443823</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -579,6 +604,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443826</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -604,6 +634,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443829</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -629,6 +664,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443832</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -654,6 +694,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443835</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -679,6 +724,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443838</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -704,6 +754,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443841</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -729,6 +784,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443844</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -754,6 +814,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443847</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -779,6 +844,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443850</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -804,6 +874,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443853</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -829,6 +904,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443856</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -854,6 +934,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443859</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -879,6 +964,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443862</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -904,6 +994,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443865</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -929,6 +1024,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443868</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -954,6 +1054,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443871</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -979,6 +1084,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443874</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1004,6 +1114,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443877</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1029,6 +1144,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443880</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1054,6 +1174,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443883</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1079,6 +1204,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443886</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1104,6 +1234,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443889</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1129,6 +1264,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443892</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1154,6 +1294,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443894</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1179,6 +1324,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443897</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1204,6 +1354,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443900</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1229,6 +1384,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443903</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1254,6 +1414,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443906</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1279,6 +1444,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443909</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1304,6 +1474,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443912</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1329,6 +1504,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443915</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1354,6 +1534,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443917</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1379,6 +1564,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443920</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1404,6 +1594,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443923</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1429,6 +1624,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443925</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1454,6 +1654,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443928</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1479,6 +1684,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443932</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1504,6 +1714,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443935</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1529,6 +1744,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443938</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1554,6 +1774,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443941</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1579,6 +1804,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443944</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1604,6 +1834,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443946</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1629,6 +1864,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443949</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1654,6 +1894,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443952</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1679,6 +1924,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443955</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1704,6 +1954,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443958</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1729,6 +1984,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443961</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1754,6 +2014,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443964</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1779,6 +2044,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443967</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1804,6 +2074,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443970</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1829,6 +2104,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443973</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1854,6 +2134,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443976</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1879,6 +2164,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443979</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1904,6 +2194,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443982</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1929,6 +2224,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443985</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1954,6 +2254,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443987</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1979,6 +2284,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443990</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2004,6 +2314,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443993</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2029,6 +2344,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443996</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2054,6 +2374,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.443998</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2079,6 +2404,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444008</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2104,6 +2434,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444011</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2129,6 +2464,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444014</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2154,6 +2494,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444017</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2179,6 +2524,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444019</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2204,6 +2554,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444022</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2229,6 +2584,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444025</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2254,6 +2614,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444028</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2279,6 +2644,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444031</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2304,6 +2674,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444033</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2329,6 +2704,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444036</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2354,6 +2734,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444039</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2379,6 +2764,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444043</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2404,6 +2794,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444046</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2429,6 +2824,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444049</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2454,6 +2854,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444052</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2479,6 +2884,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444054</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2504,6 +2914,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444057</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2529,6 +2944,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444059</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2554,6 +2974,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444062</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2579,6 +3004,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444064</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2604,6 +3034,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444067</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2629,6 +3064,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444069</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2654,6 +3094,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444072</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2679,6 +3124,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444075</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2704,6 +3154,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444077</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -2729,6 +3184,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444080</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -2754,6 +3214,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444083</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -2779,6 +3244,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444089</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -2804,6 +3274,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444092</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -2829,6 +3304,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444094</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -2854,6 +3334,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444097</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -2879,6 +3364,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444099</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -2904,6 +3394,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444102</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -2929,6 +3424,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444105</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -2954,6 +3454,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444107</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -2979,6 +3484,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444110</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3004,6 +3514,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444112</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3029,6 +3544,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444115</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3054,6 +3574,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444118</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3079,6 +3604,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444121</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3104,6 +3634,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444123</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3129,6 +3664,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444126</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3154,6 +3694,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444128</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -3179,6 +3724,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444133</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -3204,6 +3754,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444136</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -3229,6 +3784,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444139</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -3254,6 +3814,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444142</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -3279,6 +3844,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444144</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -3304,6 +3874,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444147</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -3329,6 +3904,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444149</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -3354,6 +3934,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444152</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -3379,6 +3964,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444154</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -3404,6 +3994,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444157</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -3429,6 +4024,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444160</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -3454,6 +4054,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444162</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -3479,6 +4084,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444165</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -3504,6 +4114,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444168</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -3529,6 +4144,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444170</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -3554,6 +4174,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444173</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -3579,6 +4204,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444175</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -3604,6 +4234,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444178</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -3629,6 +4264,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444180</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -3654,6 +4294,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444183</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -3679,6 +4324,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444187</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -3704,6 +4354,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444191</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -3729,6 +4384,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444194</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -3754,6 +4414,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444196</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -3779,6 +4444,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444199</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -3804,6 +4474,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444201</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -3829,6 +4504,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444204</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -3854,6 +4534,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444207</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -3879,6 +4564,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444209</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -3904,6 +4594,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444212</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -3929,6 +4624,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444214</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -3954,6 +4654,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444217</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -3979,6 +4684,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444219</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -4004,6 +4714,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444222</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -4029,6 +4744,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444225</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -4054,6 +4774,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444227</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -4079,6 +4804,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444230</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -4104,6 +4834,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444233</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -4129,6 +4864,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444235</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -4154,6 +4894,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444238</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -4179,6 +4924,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444241</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -4204,6 +4954,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444243</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -4229,6 +4984,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444246</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -4254,6 +5014,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444248</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -4279,6 +5044,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444251</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -4304,6 +5074,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444253</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -4329,6 +5104,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444256</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -4354,6 +5134,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444259</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -4379,6 +5164,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444261</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -4404,6 +5194,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444264</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -4429,6 +5224,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444267</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -4454,6 +5254,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444269</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -4479,6 +5284,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444272</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -4504,6 +5314,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444274</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -4529,6 +5344,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444277</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -4554,6 +5374,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444280</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -4579,6 +5404,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444282</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -4604,6 +5434,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444285</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -4629,6 +5464,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444287</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -4654,6 +5494,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444290</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -4679,6 +5524,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444293</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -4704,6 +5554,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444295</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -4729,6 +5584,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444298</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -4754,6 +5614,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444301</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -4779,6 +5644,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444305</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -4804,6 +5674,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444308</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -4829,6 +5704,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444310</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -4854,6 +5734,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444313</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -4879,6 +5764,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444315</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -4904,6 +5794,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444318</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -4929,6 +5824,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444321</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -4954,6 +5854,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444323</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -4979,6 +5884,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444326</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -5004,6 +5914,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444328</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -5029,6 +5944,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444331</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -5054,6 +5974,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444333</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -5079,6 +6004,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444336</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -5104,6 +6034,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444339</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -5129,6 +6064,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444341</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -5154,6 +6094,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444344</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -5179,6 +6124,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444346</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -5204,6 +6154,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444349</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -5229,6 +6184,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444352</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -5254,6 +6214,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444354</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -5279,6 +6244,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444357</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -5304,6 +6274,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444359</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -5329,6 +6304,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444362</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -5354,6 +6334,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444365</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -5379,6 +6364,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444367</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -5404,6 +6394,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444370</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -5429,6 +6424,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444373</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -5454,6 +6454,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444375</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -5479,6 +6484,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444378</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -5504,6 +6514,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444381</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -5529,6 +6544,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444383</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -5554,6 +6574,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444386</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -5579,6 +6604,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444388</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -5604,6 +6634,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444391</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -5629,6 +6664,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444393</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -5654,6 +6694,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444396</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -5679,6 +6724,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444398</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -5704,6 +6754,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444401</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -5729,6 +6784,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444404</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -5754,6 +6814,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444406</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -5779,6 +6844,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444409</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -5804,6 +6874,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444411</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -5829,6 +6904,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444414</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -5854,6 +6934,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444416</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -5879,6 +6964,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444419</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -5904,6 +6994,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444422</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -5929,6 +7024,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444424</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -5954,6 +7054,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444427</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -5979,6 +7084,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444429</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -6004,6 +7114,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444432</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -6029,6 +7144,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444434</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -6054,6 +7174,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444437</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -6079,6 +7204,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444440</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -6104,6 +7234,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444442</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -6129,6 +7264,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444445</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -6154,6 +7294,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444447</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -6179,6 +7324,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444450</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -6204,6 +7354,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444452</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -6229,6 +7384,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444455</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -6254,6 +7414,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444457</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -6279,6 +7444,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444461</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -6304,6 +7474,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444464</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -6329,6 +7504,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444467</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -6354,6 +7534,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444469</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -6379,6 +7564,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444472</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -6404,6 +7594,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444474</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -6429,6 +7624,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444477</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -6454,6 +7654,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444479</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -6479,6 +7684,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444482</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -6504,6 +7714,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444484</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -6529,6 +7744,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444487</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -6554,6 +7774,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444490</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -6579,6 +7804,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444493</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -6604,6 +7834,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444495</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -6629,6 +7864,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444498</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -6654,6 +7894,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444500</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -6679,6 +7924,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444503</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -6704,6 +7954,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444506</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -6729,6 +7984,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444508</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -6754,6 +8014,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444511</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -6779,6 +8044,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444513</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -6804,6 +8074,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444519</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -6829,6 +8104,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444523</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -6854,6 +8134,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444526</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -6879,6 +8164,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444528</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -6904,6 +8194,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444531</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -6929,6 +8224,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444533</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -6954,6 +8254,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444536</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -6979,6 +8284,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444538</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -7004,6 +8314,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444541</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -7029,6 +8344,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444543</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -7054,6 +8374,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444546</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -7079,6 +8404,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444549</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -7104,6 +8434,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444551</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -7129,6 +8464,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444554</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -7154,6 +8494,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444556</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -7179,6 +8524,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444559</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -7204,6 +8554,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444562</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -7229,6 +8584,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444564</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -7254,6 +8614,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444567</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -7279,6 +8644,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444570</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -7304,6 +8674,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444572</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -7329,6 +8704,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444575</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -7354,6 +8734,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444577</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -7379,6 +8764,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444580</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -7404,6 +8794,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444582</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -7429,6 +8824,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444585</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -7454,6 +8854,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444588</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -7479,6 +8884,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444590</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -7504,6 +8914,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444593</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -7529,6 +8944,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444595</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -7554,6 +8974,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444598</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -7579,6 +9004,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444600</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -7604,6 +9034,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444603</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -7629,6 +9064,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444605</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -7654,6 +9094,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444608</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -7679,6 +9124,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444611</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -7704,6 +9154,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444613</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -7729,6 +9184,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444616</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -7754,6 +9214,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444618</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -7779,6 +9244,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444621</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -7804,6 +9274,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444623</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -7829,6 +9304,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444626</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -7854,6 +9334,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444629</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -7879,6 +9364,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444631</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -7904,6 +9394,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444634</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -7929,6 +9424,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444636</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -7954,6 +9454,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444639</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -7979,6 +9484,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444642</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -8004,6 +9514,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444644</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -8029,6 +9544,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444647</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -8054,6 +9574,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444650</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -8079,6 +9604,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444652</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -8104,6 +9634,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444655</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -8129,6 +9664,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444657</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -8154,6 +9694,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444660</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -8179,6 +9724,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444664</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -8204,6 +9754,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444667</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -8229,6 +9784,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444670</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -8254,6 +9814,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444673</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -8279,6 +9844,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444675</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -8304,6 +9874,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444678</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -8329,6 +9904,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444680</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -8354,6 +9934,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444683</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -8379,6 +9964,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444686</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -8404,6 +9994,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444688</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -8429,6 +10024,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444691</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -8454,6 +10054,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444694</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -8479,6 +10084,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444697</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -8504,6 +10114,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444699</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -8529,6 +10144,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444702</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -8554,6 +10174,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444704</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -8579,6 +10204,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444707</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -8604,6 +10234,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444710</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -8629,6 +10264,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444712</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -8654,6 +10294,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444715</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -8679,6 +10324,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444717</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -8704,6 +10354,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444720</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -8729,6 +10384,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444722</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -8754,6 +10414,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444725</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -8779,6 +10444,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444728</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -8804,6 +10474,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444730</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -8829,6 +10504,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444733</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -8854,6 +10534,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444735</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -8879,6 +10564,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444738</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -8904,6 +10594,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444740</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -8929,6 +10624,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444743</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -8954,6 +10654,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444746</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -8979,6 +10684,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444749</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -9004,6 +10714,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444751</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -9029,6 +10744,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444753</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -9054,6 +10774,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444756</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -9079,6 +10804,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444759</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -9104,6 +10834,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444761</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -9129,6 +10864,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444764</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -9154,6 +10894,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444766</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -9179,6 +10924,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444769</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -9204,6 +10954,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444771</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -9229,6 +10984,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444774</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -9254,6 +11014,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444776</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -9279,6 +11044,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444781</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -9304,6 +11074,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444784</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -9329,6 +11104,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444787</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -9354,6 +11134,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444790</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -9379,6 +11164,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444793</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -9404,6 +11194,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444795</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -9429,6 +11224,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444798</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -9454,6 +11254,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444800</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -9479,6 +11284,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444803</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -9504,6 +11314,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444805</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -9529,6 +11344,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444808</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -9554,6 +11374,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444810</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -9579,6 +11404,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444813</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -9604,6 +11434,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444815</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -9629,6 +11464,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444818</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -9654,6 +11494,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444821</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -9679,6 +11524,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444823</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -9704,6 +11554,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444826</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -9729,6 +11584,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444828</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -9754,6 +11614,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444831</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -9779,6 +11644,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444833</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -9804,6 +11674,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444836</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
@@ -9829,6 +11704,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444838</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
@@ -9854,6 +11734,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444841</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
@@ -9879,6 +11764,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444843</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
@@ -9904,6 +11794,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444846</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
@@ -9929,6 +11824,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444848</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
@@ -9954,6 +11854,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444851</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
@@ -9979,6 +11884,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444854</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
@@ -10004,6 +11914,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444856</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
@@ -10029,6 +11944,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444859</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
@@ -10054,6 +11974,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444861</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
@@ -10079,6 +12004,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444864</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
@@ -10104,6 +12034,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444866</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
@@ -10129,6 +12064,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444869</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
@@ -10154,6 +12094,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444871</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
@@ -10179,6 +12124,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444874</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
@@ -10204,6 +12154,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444876</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
@@ -10229,6 +12184,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444879</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
@@ -10254,6 +12214,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444881</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
@@ -10279,6 +12244,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444884</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
@@ -10304,6 +12274,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444887</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
@@ -10329,6 +12304,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444889</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
@@ -10354,6 +12334,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444892</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
@@ -10379,6 +12364,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444894</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
@@ -10404,6 +12394,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444897</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
@@ -10429,6 +12424,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444899</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
@@ -10454,6 +12454,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444902</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
@@ -10479,6 +12484,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444906</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
@@ -10504,6 +12514,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444909</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
@@ -10529,6 +12544,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444912</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
@@ -10554,6 +12574,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444914</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
@@ -10579,6 +12604,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444917</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
@@ -10604,6 +12634,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444919</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
@@ -10629,6 +12664,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444922</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
@@ -10654,6 +12694,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444924</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
@@ -10679,6 +12724,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444927</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
@@ -10704,6 +12754,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444930</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
@@ -10729,6 +12784,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444932</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
@@ -10754,6 +12814,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444935</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
@@ -10779,6 +12844,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444937</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
@@ -10804,6 +12874,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444940</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
@@ -10829,6 +12904,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444942</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
@@ -10854,6 +12934,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444945</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
@@ -10879,6 +12964,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444948</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
@@ -10904,6 +12994,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444950</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
@@ -10929,6 +13024,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444953</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
@@ -10954,6 +13054,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444955</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
@@ -10979,6 +13084,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444958</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
@@ -11004,6 +13114,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444960</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
@@ -11029,6 +13144,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444963</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
@@ -11054,6 +13174,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444965</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
@@ -11079,6 +13204,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444968</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
@@ -11104,6 +13234,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444970</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
@@ -11129,6 +13264,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444973</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
@@ -11154,6 +13294,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444975</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
@@ -11179,6 +13324,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444978</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
@@ -11204,6 +13354,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444980</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
@@ -11229,6 +13384,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444983</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
@@ -11254,6 +13414,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444986</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
@@ -11279,6 +13444,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444988</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
@@ -11304,6 +13474,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444991</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
@@ -11329,6 +13504,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444993</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
@@ -11354,6 +13534,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444996</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
@@ -11379,6 +13564,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.444998</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
@@ -11404,6 +13594,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445001</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
@@ -11429,6 +13624,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445003</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
@@ -11454,6 +13654,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445006</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
@@ -11479,6 +13684,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445008</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
@@ -11504,6 +13714,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445011</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
@@ -11529,6 +13744,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445014</t>
+        </is>
+      </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
@@ -11554,6 +13774,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445016</t>
+        </is>
+      </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
@@ -11579,6 +13804,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445019</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
@@ -11604,6 +13834,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445021</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
@@ -11629,6 +13864,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445024</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
@@ -11654,6 +13894,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445027</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
@@ -11679,6 +13924,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445029</t>
+        </is>
+      </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
@@ -11704,6 +13954,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445032</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
@@ -11729,6 +13984,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445034</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="n">
@@ -11754,6 +14014,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445037</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
@@ -11779,6 +14044,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445040</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="n">
@@ -11804,6 +14074,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445042</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="n">
@@ -11829,6 +14104,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445045</t>
+        </is>
+      </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="n">
@@ -11854,6 +14134,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445047</t>
+        </is>
+      </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
@@ -11879,6 +14164,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445052</t>
+        </is>
+      </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
@@ -11904,6 +14194,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445055</t>
+        </is>
+      </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="n">
@@ -11929,6 +14224,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445058</t>
+        </is>
+      </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="n">
@@ -11954,6 +14254,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445061</t>
+        </is>
+      </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
@@ -11979,6 +14284,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445063</t>
+        </is>
+      </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
@@ -12004,6 +14314,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445065</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
@@ -12029,6 +14344,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445068</t>
+        </is>
+      </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
@@ -12054,6 +14374,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445071</t>
+        </is>
+      </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
@@ -12079,6 +14404,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445073</t>
+        </is>
+      </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
@@ -12104,6 +14434,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445076</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
@@ -12129,6 +14464,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445079</t>
+        </is>
+      </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
@@ -12154,6 +14494,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445081</t>
+        </is>
+      </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
@@ -12179,6 +14524,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445084</t>
+        </is>
+      </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
@@ -12204,6 +14554,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445087</t>
+        </is>
+      </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
@@ -12229,6 +14584,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445089</t>
+        </is>
+      </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="n">
@@ -12254,6 +14614,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445092</t>
+        </is>
+      </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
@@ -12279,6 +14644,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445095</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
@@ -12304,6 +14674,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445097</t>
+        </is>
+      </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
@@ -12329,6 +14704,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445100</t>
+        </is>
+      </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
@@ -12354,6 +14734,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445102</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
@@ -12379,6 +14764,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445105</t>
+        </is>
+      </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
@@ -12404,6 +14794,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445108</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
@@ -12429,6 +14824,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445110</t>
+        </is>
+      </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
@@ -12454,6 +14854,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445113</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
@@ -12479,6 +14884,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445115</t>
+        </is>
+      </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
@@ -12504,6 +14914,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445118</t>
+        </is>
+      </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
@@ -12529,6 +14944,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445120</t>
+        </is>
+      </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
@@ -12554,6 +14974,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445123</t>
+        </is>
+      </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
@@ -12579,6 +15004,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445125</t>
+        </is>
+      </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
@@ -12604,6 +15034,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445128</t>
+        </is>
+      </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
@@ -12629,6 +15064,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445130</t>
+        </is>
+      </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
@@ -12654,6 +15094,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445133</t>
+        </is>
+      </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
@@ -12679,6 +15124,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445135</t>
+        </is>
+      </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
@@ -12704,6 +15154,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445138</t>
+        </is>
+      </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
@@ -12729,6 +15184,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445140</t>
+        </is>
+      </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
@@ -12754,6 +15214,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445143</t>
+        </is>
+      </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
@@ -12779,6 +15244,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445145</t>
+        </is>
+      </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
@@ -12804,6 +15274,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445148</t>
+        </is>
+      </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
@@ -12829,6 +15304,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445151</t>
+        </is>
+      </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
@@ -12854,6 +15334,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445153</t>
+        </is>
+      </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
@@ -12879,6 +15364,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445156</t>
+        </is>
+      </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
@@ -12904,6 +15394,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445158</t>
+        </is>
+      </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
@@ -12929,6 +15424,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445161</t>
+        </is>
+      </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
@@ -12954,6 +15454,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445163</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
@@ -12979,6 +15484,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445166</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
@@ -13004,6 +15514,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445168</t>
+        </is>
+      </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
@@ -13029,6 +15544,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445171</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
@@ -13054,6 +15574,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445174</t>
+        </is>
+      </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
@@ -13079,6 +15604,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445176</t>
+        </is>
+      </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
@@ -13104,6 +15634,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445179</t>
+        </is>
+      </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
@@ -13129,6 +15664,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445182</t>
+        </is>
+      </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
@@ -13154,6 +15694,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445184</t>
+        </is>
+      </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
@@ -13179,6 +15724,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445187</t>
+        </is>
+      </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
@@ -13204,6 +15754,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445189</t>
+        </is>
+      </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
@@ -13229,6 +15784,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445192</t>
+        </is>
+      </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
@@ -13254,6 +15814,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F513" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445194</t>
+        </is>
+      </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
@@ -13279,6 +15844,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445197</t>
+        </is>
+      </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
@@ -13304,6 +15874,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445200</t>
+        </is>
+      </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
@@ -13329,6 +15904,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445202</t>
+        </is>
+      </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
@@ -13354,6 +15934,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445205</t>
+        </is>
+      </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
@@ -13379,6 +15964,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445207</t>
+        </is>
+      </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
@@ -13404,6 +15994,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445210</t>
+        </is>
+      </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
@@ -13429,6 +16024,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445212</t>
+        </is>
+      </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
@@ -13454,6 +16054,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445215</t>
+        </is>
+      </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
@@ -13479,6 +16084,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F522" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445219</t>
+        </is>
+      </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
@@ -13504,6 +16114,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445223</t>
+        </is>
+      </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
@@ -13529,6 +16144,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445226</t>
+        </is>
+      </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
@@ -13554,6 +16174,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F525" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445228</t>
+        </is>
+      </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
@@ -13579,6 +16204,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F526" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445231</t>
+        </is>
+      </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
@@ -13604,6 +16234,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F527" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445233</t>
+        </is>
+      </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
@@ -13629,6 +16264,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445236</t>
+        </is>
+      </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
@@ -13654,6 +16294,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445239</t>
+        </is>
+      </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
@@ -13679,6 +16324,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F530" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445241</t>
+        </is>
+      </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
@@ -13704,6 +16354,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F531" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445244</t>
+        </is>
+      </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
@@ -13729,6 +16384,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445246</t>
+        </is>
+      </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
@@ -13754,6 +16414,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445249</t>
+        </is>
+      </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
@@ -13779,6 +16444,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445251</t>
+        </is>
+      </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
@@ -13804,6 +16474,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445254</t>
+        </is>
+      </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
@@ -13829,6 +16504,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445257</t>
+        </is>
+      </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
@@ -13854,6 +16534,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445259</t>
+        </is>
+      </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
@@ -13879,6 +16564,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F538" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445262</t>
+        </is>
+      </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
@@ -13904,6 +16594,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445264</t>
+        </is>
+      </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
@@ -13929,6 +16624,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F540" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445267</t>
+        </is>
+      </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
@@ -13954,6 +16654,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F541" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445270</t>
+        </is>
+      </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
@@ -13979,6 +16684,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F542" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445273</t>
+        </is>
+      </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
@@ -14004,6 +16714,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F543" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445275</t>
+        </is>
+      </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
@@ -14029,6 +16744,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445278</t>
+        </is>
+      </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
@@ -14054,6 +16774,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445280</t>
+        </is>
+      </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
@@ -14079,6 +16804,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F546" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445283</t>
+        </is>
+      </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
@@ -14104,6 +16834,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445285</t>
+        </is>
+      </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
@@ -14129,6 +16864,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445288</t>
+        </is>
+      </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
@@ -14154,6 +16894,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F549" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445290</t>
+        </is>
+      </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
@@ -14179,6 +16924,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F550" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445293</t>
+        </is>
+      </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
@@ -14204,6 +16954,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F551" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445296</t>
+        </is>
+      </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
@@ -14229,6 +16984,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F552" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445298</t>
+        </is>
+      </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
@@ -14254,6 +17014,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F553" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445301</t>
+        </is>
+      </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
@@ -14279,6 +17044,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F554" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445304</t>
+        </is>
+      </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
@@ -14304,6 +17074,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F555" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445306</t>
+        </is>
+      </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
@@ -14329,6 +17104,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F556" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445309</t>
+        </is>
+      </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
@@ -14354,6 +17134,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F557" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445311</t>
+        </is>
+      </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
@@ -14379,6 +17164,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F558" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445314</t>
+        </is>
+      </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
@@ -14404,6 +17194,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F559" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445317</t>
+        </is>
+      </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
@@ -14429,6 +17224,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F560" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445319</t>
+        </is>
+      </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
@@ -14454,6 +17254,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F561" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445322</t>
+        </is>
+      </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
@@ -14479,6 +17284,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F562" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445324</t>
+        </is>
+      </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
@@ -14504,6 +17314,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F563" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445327</t>
+        </is>
+      </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
@@ -14529,6 +17344,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F564" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445329</t>
+        </is>
+      </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
@@ -14554,6 +17374,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F565" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445332</t>
+        </is>
+      </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
@@ -14579,6 +17404,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F566" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445335</t>
+        </is>
+      </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
@@ -14604,6 +17434,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F567" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445337</t>
+        </is>
+      </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
@@ -14629,6 +17464,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F568" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445340</t>
+        </is>
+      </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
@@ -14654,6 +17494,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F569" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445343</t>
+        </is>
+      </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
@@ -14679,6 +17524,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F570" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445345</t>
+        </is>
+      </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
@@ -14704,6 +17554,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F571" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445348</t>
+        </is>
+      </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
@@ -14729,6 +17584,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F572" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445351</t>
+        </is>
+      </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
@@ -14754,6 +17614,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F573" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445353</t>
+        </is>
+      </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
@@ -14779,6 +17644,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F574" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445356</t>
+        </is>
+      </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
@@ -14804,6 +17674,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F575" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445358</t>
+        </is>
+      </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
@@ -14829,6 +17704,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F576" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445361</t>
+        </is>
+      </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
@@ -14854,6 +17734,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F577" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445363</t>
+        </is>
+      </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
@@ -14879,6 +17764,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F578" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445366</t>
+        </is>
+      </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
@@ -14904,6 +17794,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F579" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445368</t>
+        </is>
+      </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
@@ -14929,6 +17824,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F580" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445371</t>
+        </is>
+      </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
@@ -14954,6 +17854,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F581" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445374</t>
+        </is>
+      </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
@@ -14979,6 +17884,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F582" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445376</t>
+        </is>
+      </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
@@ -15004,6 +17914,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F583" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445379</t>
+        </is>
+      </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
@@ -15029,6 +17944,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F584" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445382</t>
+        </is>
+      </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
@@ -15054,6 +17974,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F585" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445384</t>
+        </is>
+      </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
@@ -15079,6 +18004,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F586" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445387</t>
+        </is>
+      </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
@@ -15104,6 +18034,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F587" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445390</t>
+        </is>
+      </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
@@ -15129,6 +18064,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F588" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445392</t>
+        </is>
+      </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
@@ -15154,6 +18094,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F589" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445395</t>
+        </is>
+      </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
@@ -15179,6 +18124,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F590" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445398</t>
+        </is>
+      </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
@@ -15204,6 +18154,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F591" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445401</t>
+        </is>
+      </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
@@ -15229,6 +18184,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F592" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445403</t>
+        </is>
+      </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
@@ -15254,6 +18214,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F593" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445406</t>
+        </is>
+      </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
@@ -15279,6 +18244,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F594" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445410</t>
+        </is>
+      </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
@@ -15304,6 +18274,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F595" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445413</t>
+        </is>
+      </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
@@ -15329,6 +18304,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F596" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445416</t>
+        </is>
+      </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
@@ -15354,6 +18334,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F597" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445418</t>
+        </is>
+      </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
@@ -15379,6 +18364,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F598" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445421</t>
+        </is>
+      </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
@@ -15404,6 +18394,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F599" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445423</t>
+        </is>
+      </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
@@ -15429,6 +18424,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F600" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445426</t>
+        </is>
+      </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
@@ -15454,6 +18454,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F601" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445429</t>
+        </is>
+      </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
@@ -15479,6 +18484,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F602" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445431</t>
+        </is>
+      </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
@@ -15504,6 +18514,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F603" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445434</t>
+        </is>
+      </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
@@ -15529,6 +18544,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F604" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445436</t>
+        </is>
+      </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
@@ -15554,6 +18574,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F605" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445439</t>
+        </is>
+      </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
@@ -15579,6 +18604,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F606" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445442</t>
+        </is>
+      </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
@@ -15604,6 +18634,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F607" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445444</t>
+        </is>
+      </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
@@ -15629,6 +18664,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F608" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445447</t>
+        </is>
+      </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
@@ -15654,6 +18694,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F609" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445450</t>
+        </is>
+      </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
@@ -15679,6 +18724,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F610" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445452</t>
+        </is>
+      </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
@@ -15704,6 +18754,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F611" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445455</t>
+        </is>
+      </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
@@ -15729,6 +18784,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F612" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445458</t>
+        </is>
+      </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
@@ -15754,6 +18814,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F613" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445460</t>
+        </is>
+      </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
@@ -15779,6 +18844,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F614" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445462</t>
+        </is>
+      </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
@@ -15804,6 +18874,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F615" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445465</t>
+        </is>
+      </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
@@ -15829,6 +18904,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F616" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445468</t>
+        </is>
+      </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
@@ -15854,6 +18934,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F617" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445470</t>
+        </is>
+      </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
@@ -15879,6 +18964,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F618" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445473</t>
+        </is>
+      </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
@@ -15904,6 +18994,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F619" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445476</t>
+        </is>
+      </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
@@ -15929,6 +19024,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F620" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445478</t>
+        </is>
+      </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
@@ -15954,6 +19054,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F621" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445481</t>
+        </is>
+      </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
@@ -15979,6 +19084,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F622" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445483</t>
+        </is>
+      </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
@@ -16004,6 +19114,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F623" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445486</t>
+        </is>
+      </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
@@ -16029,6 +19144,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F624" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445488</t>
+        </is>
+      </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
@@ -16054,6 +19174,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F625" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445491</t>
+        </is>
+      </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
@@ -16079,6 +19204,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F626" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445494</t>
+        </is>
+      </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
@@ -16104,6 +19234,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F627" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445496</t>
+        </is>
+      </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
@@ -16129,6 +19264,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F628" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445499</t>
+        </is>
+      </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
@@ -16154,6 +19294,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F629" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445501</t>
+        </is>
+      </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
@@ -16179,6 +19324,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F630" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445504</t>
+        </is>
+      </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
@@ -16204,6 +19354,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F631" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445507</t>
+        </is>
+      </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
@@ -16229,6 +19384,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F632" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445509</t>
+        </is>
+      </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
@@ -16254,6 +19414,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F633" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445512</t>
+        </is>
+      </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
@@ -16279,6 +19444,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F634" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445514</t>
+        </is>
+      </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
@@ -16304,6 +19474,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F635" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445517</t>
+        </is>
+      </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
@@ -16329,6 +19504,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F636" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445519</t>
+        </is>
+      </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
@@ -16354,6 +19534,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F637" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445522</t>
+        </is>
+      </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
@@ -16379,6 +19564,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F638" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445525</t>
+        </is>
+      </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
@@ -16404,6 +19594,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F639" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445528</t>
+        </is>
+      </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
@@ -16429,6 +19624,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F640" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445530</t>
+        </is>
+      </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
@@ -16454,6 +19654,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F641" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445533</t>
+        </is>
+      </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
@@ -16479,6 +19684,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F642" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445536</t>
+        </is>
+      </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
@@ -16504,6 +19714,11 @@
           <t>Immunological disorders_SuperPanel</t>
         </is>
       </c>
+      <c r="F643" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445538</t>
+        </is>
+      </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
@@ -16527,6 +19742,11 @@
       <c r="E644" t="inlineStr">
         <is>
           <t>Immunological disorders_SuperPanel</t>
+        </is>
+      </c>
+      <c r="F644" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:15.445541</t>
         </is>
       </c>
     </row>

--- a/data/panelapp/au/Immunological disorders_SuperPanel.xlsx
+++ b/data/panelapp/au/Immunological disorders_SuperPanel.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443805</t>
+          <t>2021-10-05 14:34:09.605503</t>
         </is>
       </c>
     </row>
@@ -516,7 +517,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443816</t>
+          <t>2021-10-05 14:34:09.605511</t>
         </is>
       </c>
     </row>
@@ -546,7 +547,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443820</t>
+          <t>2021-10-05 14:34:09.605514</t>
         </is>
       </c>
     </row>
@@ -576,7 +577,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443823</t>
+          <t>2021-10-05 14:34:09.605517</t>
         </is>
       </c>
     </row>
@@ -606,7 +607,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443826</t>
+          <t>2021-10-05 14:34:09.605520</t>
         </is>
       </c>
     </row>
@@ -636,7 +637,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443829</t>
+          <t>2021-10-05 14:34:09.605523</t>
         </is>
       </c>
     </row>
@@ -666,7 +667,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443832</t>
+          <t>2021-10-05 14:34:09.605526</t>
         </is>
       </c>
     </row>
@@ -696,7 +697,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443835</t>
+          <t>2021-10-05 14:34:09.605529</t>
         </is>
       </c>
     </row>
@@ -726,7 +727,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443838</t>
+          <t>2021-10-05 14:34:09.605533</t>
         </is>
       </c>
     </row>
@@ -756,7 +757,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443841</t>
+          <t>2021-10-05 14:34:09.605536</t>
         </is>
       </c>
     </row>
@@ -786,7 +787,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443844</t>
+          <t>2021-10-05 14:34:09.605539</t>
         </is>
       </c>
     </row>
@@ -816,7 +817,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443847</t>
+          <t>2021-10-05 14:34:09.605542</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443850</t>
+          <t>2021-10-05 14:34:09.605544</t>
         </is>
       </c>
     </row>
@@ -876,7 +877,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443853</t>
+          <t>2021-10-05 14:34:09.605547</t>
         </is>
       </c>
     </row>
@@ -906,7 +907,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443856</t>
+          <t>2021-10-05 14:34:09.605550</t>
         </is>
       </c>
     </row>
@@ -936,7 +937,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443859</t>
+          <t>2021-10-05 14:34:09.605553</t>
         </is>
       </c>
     </row>
@@ -966,7 +967,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443862</t>
+          <t>2021-10-05 14:34:09.605556</t>
         </is>
       </c>
     </row>
@@ -996,7 +997,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443865</t>
+          <t>2021-10-05 14:34:09.605559</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1027,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443868</t>
+          <t>2021-10-05 14:34:09.605562</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1057,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443871</t>
+          <t>2021-10-05 14:34:09.605565</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443874</t>
+          <t>2021-10-05 14:34:09.605568</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1117,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443877</t>
+          <t>2021-10-05 14:34:09.605571</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1147,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443880</t>
+          <t>2021-10-05 14:34:09.605573</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1177,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443883</t>
+          <t>2021-10-05 14:34:09.605576</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1207,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443886</t>
+          <t>2021-10-05 14:34:09.605579</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1237,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443889</t>
+          <t>2021-10-05 14:34:09.605582</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1267,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443892</t>
+          <t>2021-10-05 14:34:09.605585</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1297,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443894</t>
+          <t>2021-10-05 14:34:09.605587</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1327,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443897</t>
+          <t>2021-10-05 14:34:09.605590</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1357,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443900</t>
+          <t>2021-10-05 14:34:09.605593</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1387,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443903</t>
+          <t>2021-10-05 14:34:09.605596</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1417,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443906</t>
+          <t>2021-10-05 14:34:09.605599</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1447,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443909</t>
+          <t>2021-10-05 14:34:09.605602</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1477,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443912</t>
+          <t>2021-10-05 14:34:09.605606</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1507,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443915</t>
+          <t>2021-10-05 14:34:09.605608</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1537,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443917</t>
+          <t>2021-10-05 14:34:09.605611</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1567,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443920</t>
+          <t>2021-10-05 14:34:09.605614</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1597,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443923</t>
+          <t>2021-10-05 14:34:09.605617</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1627,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443925</t>
+          <t>2021-10-05 14:34:09.605620</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1657,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443928</t>
+          <t>2021-10-05 14:34:09.605623</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1687,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443932</t>
+          <t>2021-10-05 14:34:09.605626</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1717,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443935</t>
+          <t>2021-10-05 14:34:09.605629</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1747,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443938</t>
+          <t>2021-10-05 14:34:09.605632</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1777,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443941</t>
+          <t>2021-10-05 14:34:09.605635</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1807,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443944</t>
+          <t>2021-10-05 14:34:09.605638</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1837,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443946</t>
+          <t>2021-10-05 14:34:09.605641</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1867,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443949</t>
+          <t>2021-10-05 14:34:09.605643</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443952</t>
+          <t>2021-10-05 14:34:09.605646</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1927,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443955</t>
+          <t>2021-10-05 14:34:09.605649</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1957,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443958</t>
+          <t>2021-10-05 14:34:09.605652</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1987,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443961</t>
+          <t>2021-10-05 14:34:09.605655</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2017,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443964</t>
+          <t>2021-10-05 14:34:09.605658</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2047,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443967</t>
+          <t>2021-10-05 14:34:09.605662</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2077,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443970</t>
+          <t>2021-10-05 14:34:09.605665</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2107,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443973</t>
+          <t>2021-10-05 14:34:09.605667</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2137,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443976</t>
+          <t>2021-10-05 14:34:09.605670</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2167,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443979</t>
+          <t>2021-10-05 14:34:09.605673</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2197,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443982</t>
+          <t>2021-10-05 14:34:09.605676</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2227,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443985</t>
+          <t>2021-10-05 14:34:09.605679</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2257,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443987</t>
+          <t>2021-10-05 14:34:09.605682</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2287,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443990</t>
+          <t>2021-10-05 14:34:09.605685</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2317,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443993</t>
+          <t>2021-10-05 14:34:09.605688</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2347,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443996</t>
+          <t>2021-10-05 14:34:09.605691</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2377,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.443998</t>
+          <t>2021-10-05 14:34:09.605693</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2407,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444008</t>
+          <t>2021-10-05 14:34:09.605697</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2437,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444011</t>
+          <t>2021-10-05 14:34:09.605700</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2467,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444014</t>
+          <t>2021-10-05 14:34:09.605703</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2497,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444017</t>
+          <t>2021-10-05 14:34:09.605706</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2527,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444019</t>
+          <t>2021-10-05 14:34:09.605709</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2557,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444022</t>
+          <t>2021-10-05 14:34:09.605711</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2587,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444025</t>
+          <t>2021-10-05 14:34:09.605714</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2617,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444028</t>
+          <t>2021-10-05 14:34:09.605717</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2647,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444031</t>
+          <t>2021-10-05 14:34:09.605720</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2677,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444033</t>
+          <t>2021-10-05 14:34:09.605723</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2707,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444036</t>
+          <t>2021-10-05 14:34:09.605726</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2737,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444039</t>
+          <t>2021-10-05 14:34:09.605729</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2767,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444043</t>
+          <t>2021-10-05 14:34:09.605734</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2797,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444046</t>
+          <t>2021-10-05 14:34:09.605738</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2827,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444049</t>
+          <t>2021-10-05 14:34:09.605741</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2857,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444052</t>
+          <t>2021-10-05 14:34:09.605744</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2887,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444054</t>
+          <t>2021-10-05 14:34:09.605747</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2917,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444057</t>
+          <t>2021-10-05 14:34:09.605750</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2947,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444059</t>
+          <t>2021-10-05 14:34:09.605753</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2977,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444062</t>
+          <t>2021-10-05 14:34:09.605755</t>
         </is>
       </c>
     </row>
@@ -3006,7 +3007,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444064</t>
+          <t>2021-10-05 14:34:09.605758</t>
         </is>
       </c>
     </row>
@@ -3036,7 +3037,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444067</t>
+          <t>2021-10-05 14:34:09.605761</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3067,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444069</t>
+          <t>2021-10-05 14:34:09.605764</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3097,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444072</t>
+          <t>2021-10-05 14:34:09.605767</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3127,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444075</t>
+          <t>2021-10-05 14:34:09.605770</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3157,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444077</t>
+          <t>2021-10-05 14:34:09.605773</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3187,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444080</t>
+          <t>2021-10-05 14:34:09.605776</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3217,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444083</t>
+          <t>2021-10-05 14:34:09.605779</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3247,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444089</t>
+          <t>2021-10-05 14:34:09.605783</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3277,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444092</t>
+          <t>2021-10-05 14:34:09.605786</t>
         </is>
       </c>
     </row>
@@ -3306,7 +3307,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444094</t>
+          <t>2021-10-05 14:34:09.605789</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3337,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444097</t>
+          <t>2021-10-05 14:34:09.605792</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3367,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444099</t>
+          <t>2021-10-05 14:34:09.605795</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3397,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444102</t>
+          <t>2021-10-05 14:34:09.605798</t>
         </is>
       </c>
     </row>
@@ -3426,7 +3427,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444105</t>
+          <t>2021-10-05 14:34:09.605800</t>
         </is>
       </c>
     </row>
@@ -3456,7 +3457,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444107</t>
+          <t>2021-10-05 14:34:09.605803</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3487,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444110</t>
+          <t>2021-10-05 14:34:09.605806</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3517,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444112</t>
+          <t>2021-10-05 14:34:09.605809</t>
         </is>
       </c>
     </row>
@@ -3546,7 +3547,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444115</t>
+          <t>2021-10-05 14:34:09.605812</t>
         </is>
       </c>
     </row>
@@ -3576,7 +3577,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444118</t>
+          <t>2021-10-05 14:34:09.605815</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3607,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444121</t>
+          <t>2021-10-05 14:34:09.605817</t>
         </is>
       </c>
     </row>
@@ -3636,7 +3637,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444123</t>
+          <t>2021-10-05 14:34:09.605820</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3667,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444126</t>
+          <t>2021-10-05 14:34:09.605823</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3697,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444128</t>
+          <t>2021-10-05 14:34:09.605826</t>
         </is>
       </c>
     </row>
@@ -3726,7 +3727,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444133</t>
+          <t>2021-10-05 14:34:09.605831</t>
         </is>
       </c>
     </row>
@@ -3756,7 +3757,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444136</t>
+          <t>2021-10-05 14:34:09.605835</t>
         </is>
       </c>
     </row>
@@ -3786,7 +3787,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444139</t>
+          <t>2021-10-05 14:34:09.605838</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3817,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444142</t>
+          <t>2021-10-05 14:34:09.605841</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3847,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444144</t>
+          <t>2021-10-05 14:34:09.605843</t>
         </is>
       </c>
     </row>
@@ -3876,7 +3877,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444147</t>
+          <t>2021-10-05 14:34:09.605846</t>
         </is>
       </c>
     </row>
@@ -3906,7 +3907,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444149</t>
+          <t>2021-10-05 14:34:09.605849</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3937,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444152</t>
+          <t>2021-10-05 14:34:09.605852</t>
         </is>
       </c>
     </row>
@@ -3966,7 +3967,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444154</t>
+          <t>2021-10-05 14:34:09.605855</t>
         </is>
       </c>
     </row>
@@ -3996,7 +3997,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444157</t>
+          <t>2021-10-05 14:34:09.605857</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4027,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444160</t>
+          <t>2021-10-05 14:34:09.605860</t>
         </is>
       </c>
     </row>
@@ -4056,7 +4057,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444162</t>
+          <t>2021-10-05 14:34:09.605863</t>
         </is>
       </c>
     </row>
@@ -4086,7 +4087,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444165</t>
+          <t>2021-10-05 14:34:09.605866</t>
         </is>
       </c>
     </row>
@@ -4116,7 +4117,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444168</t>
+          <t>2021-10-05 14:34:09.605869</t>
         </is>
       </c>
     </row>
@@ -4146,7 +4147,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444170</t>
+          <t>2021-10-05 14:34:09.605872</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4177,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444173</t>
+          <t>2021-10-05 14:34:09.605875</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4207,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444175</t>
+          <t>2021-10-05 14:34:09.605878</t>
         </is>
       </c>
     </row>
@@ -4236,7 +4237,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444178</t>
+          <t>2021-10-05 14:34:09.605880</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4267,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444180</t>
+          <t>2021-10-05 14:34:09.605883</t>
         </is>
       </c>
     </row>
@@ -4296,7 +4297,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444183</t>
+          <t>2021-10-05 14:34:09.605886</t>
         </is>
       </c>
     </row>
@@ -4326,7 +4327,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444187</t>
+          <t>2021-10-05 14:34:09.605891</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4357,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444191</t>
+          <t>2021-10-05 14:34:09.605894</t>
         </is>
       </c>
     </row>
@@ -4386,7 +4387,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444194</t>
+          <t>2021-10-05 14:34:09.605897</t>
         </is>
       </c>
     </row>
@@ -4416,7 +4417,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444196</t>
+          <t>2021-10-05 14:34:09.605900</t>
         </is>
       </c>
     </row>
@@ -4446,7 +4447,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444199</t>
+          <t>2021-10-05 14:34:09.605903</t>
         </is>
       </c>
     </row>
@@ -4476,7 +4477,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444201</t>
+          <t>2021-10-05 14:34:09.605906</t>
         </is>
       </c>
     </row>
@@ -4506,7 +4507,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444204</t>
+          <t>2021-10-05 14:34:09.605909</t>
         </is>
       </c>
     </row>
@@ -4536,7 +4537,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444207</t>
+          <t>2021-10-05 14:34:09.605911</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4567,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444209</t>
+          <t>2021-10-05 14:34:09.605914</t>
         </is>
       </c>
     </row>
@@ -4596,7 +4597,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444212</t>
+          <t>2021-10-05 14:34:09.605917</t>
         </is>
       </c>
     </row>
@@ -4626,7 +4627,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444214</t>
+          <t>2021-10-05 14:34:09.605920</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4657,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444217</t>
+          <t>2021-10-05 14:34:09.605923</t>
         </is>
       </c>
     </row>
@@ -4686,7 +4687,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444219</t>
+          <t>2021-10-05 14:34:09.605926</t>
         </is>
       </c>
     </row>
@@ -4716,7 +4717,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444222</t>
+          <t>2021-10-05 14:34:09.605929</t>
         </is>
       </c>
     </row>
@@ -4746,7 +4747,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444225</t>
+          <t>2021-10-05 14:34:09.605931</t>
         </is>
       </c>
     </row>
@@ -4776,7 +4777,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444227</t>
+          <t>2021-10-05 14:34:09.605934</t>
         </is>
       </c>
     </row>
@@ -4806,7 +4807,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444230</t>
+          <t>2021-10-05 14:34:09.605937</t>
         </is>
       </c>
     </row>
@@ -4836,7 +4837,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444233</t>
+          <t>2021-10-05 14:34:09.605940</t>
         </is>
       </c>
     </row>
@@ -4866,7 +4867,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444235</t>
+          <t>2021-10-05 14:34:09.605942</t>
         </is>
       </c>
     </row>
@@ -4896,7 +4897,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444238</t>
+          <t>2021-10-05 14:34:09.605945</t>
         </is>
       </c>
     </row>
@@ -4926,7 +4927,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444241</t>
+          <t>2021-10-05 14:34:09.605949</t>
         </is>
       </c>
     </row>
@@ -4956,7 +4957,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444243</t>
+          <t>2021-10-05 14:34:09.605952</t>
         </is>
       </c>
     </row>
@@ -4986,7 +4987,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444246</t>
+          <t>2021-10-05 14:34:09.605955</t>
         </is>
       </c>
     </row>
@@ -5016,7 +5017,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444248</t>
+          <t>2021-10-05 14:34:09.605958</t>
         </is>
       </c>
     </row>
@@ -5046,7 +5047,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444251</t>
+          <t>2021-10-05 14:34:09.605961</t>
         </is>
       </c>
     </row>
@@ -5076,7 +5077,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444253</t>
+          <t>2021-10-05 14:34:09.605964</t>
         </is>
       </c>
     </row>
@@ -5106,7 +5107,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444256</t>
+          <t>2021-10-05 14:34:09.605966</t>
         </is>
       </c>
     </row>
@@ -5136,7 +5137,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444259</t>
+          <t>2021-10-05 14:34:09.605969</t>
         </is>
       </c>
     </row>
@@ -5166,7 +5167,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444261</t>
+          <t>2021-10-05 14:34:09.605972</t>
         </is>
       </c>
     </row>
@@ -5196,7 +5197,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444264</t>
+          <t>2021-10-05 14:34:09.605975</t>
         </is>
       </c>
     </row>
@@ -5226,7 +5227,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444267</t>
+          <t>2021-10-05 14:34:09.605977</t>
         </is>
       </c>
     </row>
@@ -5256,7 +5257,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444269</t>
+          <t>2021-10-05 14:34:09.605980</t>
         </is>
       </c>
     </row>
@@ -5286,7 +5287,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444272</t>
+          <t>2021-10-05 14:34:09.605983</t>
         </is>
       </c>
     </row>
@@ -5316,7 +5317,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444274</t>
+          <t>2021-10-05 14:34:09.605986</t>
         </is>
       </c>
     </row>
@@ -5346,7 +5347,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444277</t>
+          <t>2021-10-05 14:34:09.605989</t>
         </is>
       </c>
     </row>
@@ -5376,7 +5377,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444280</t>
+          <t>2021-10-05 14:34:09.605992</t>
         </is>
       </c>
     </row>
@@ -5406,7 +5407,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444282</t>
+          <t>2021-10-05 14:34:09.605995</t>
         </is>
       </c>
     </row>
@@ -5436,7 +5437,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444285</t>
+          <t>2021-10-05 14:34:09.605997</t>
         </is>
       </c>
     </row>
@@ -5466,7 +5467,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444287</t>
+          <t>2021-10-05 14:34:09.606000</t>
         </is>
       </c>
     </row>
@@ -5496,7 +5497,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444290</t>
+          <t>2021-10-05 14:34:09.606003</t>
         </is>
       </c>
     </row>
@@ -5526,7 +5527,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444293</t>
+          <t>2021-10-05 14:34:09.606006</t>
         </is>
       </c>
     </row>
@@ -5556,7 +5557,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444295</t>
+          <t>2021-10-05 14:34:09.606009</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5587,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444298</t>
+          <t>2021-10-05 14:34:09.606011</t>
         </is>
       </c>
     </row>
@@ -5616,7 +5617,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444301</t>
+          <t>2021-10-05 14:34:09.606014</t>
         </is>
       </c>
     </row>
@@ -5646,7 +5647,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444305</t>
+          <t>2021-10-05 14:34:09.606019</t>
         </is>
       </c>
     </row>
@@ -5676,7 +5677,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444308</t>
+          <t>2021-10-05 14:34:09.606022</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5707,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444310</t>
+          <t>2021-10-05 14:34:09.606025</t>
         </is>
       </c>
     </row>
@@ -5736,7 +5737,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444313</t>
+          <t>2021-10-05 14:34:09.606028</t>
         </is>
       </c>
     </row>
@@ -5766,7 +5767,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444315</t>
+          <t>2021-10-05 14:34:09.606031</t>
         </is>
       </c>
     </row>
@@ -5796,7 +5797,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444318</t>
+          <t>2021-10-05 14:34:09.606034</t>
         </is>
       </c>
     </row>
@@ -5826,7 +5827,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444321</t>
+          <t>2021-10-05 14:34:09.606036</t>
         </is>
       </c>
     </row>
@@ -5856,7 +5857,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444323</t>
+          <t>2021-10-05 14:34:09.606039</t>
         </is>
       </c>
     </row>
@@ -5886,7 +5887,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444326</t>
+          <t>2021-10-05 14:34:09.606042</t>
         </is>
       </c>
     </row>
@@ -5916,7 +5917,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444328</t>
+          <t>2021-10-05 14:34:09.606045</t>
         </is>
       </c>
     </row>
@@ -5946,7 +5947,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444331</t>
+          <t>2021-10-05 14:34:09.606047</t>
         </is>
       </c>
     </row>
@@ -5976,7 +5977,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444333</t>
+          <t>2021-10-05 14:34:09.606050</t>
         </is>
       </c>
     </row>
@@ -6006,7 +6007,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444336</t>
+          <t>2021-10-05 14:34:09.606053</t>
         </is>
       </c>
     </row>
@@ -6036,7 +6037,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444339</t>
+          <t>2021-10-05 14:34:09.606056</t>
         </is>
       </c>
     </row>
@@ -6066,7 +6067,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444341</t>
+          <t>2021-10-05 14:34:09.606059</t>
         </is>
       </c>
     </row>
@@ -6096,7 +6097,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444344</t>
+          <t>2021-10-05 14:34:09.606062</t>
         </is>
       </c>
     </row>
@@ -6126,7 +6127,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444346</t>
+          <t>2021-10-05 14:34:09.606065</t>
         </is>
       </c>
     </row>
@@ -6156,7 +6157,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444349</t>
+          <t>2021-10-05 14:34:09.606067</t>
         </is>
       </c>
     </row>
@@ -6186,7 +6187,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444352</t>
+          <t>2021-10-05 14:34:09.606070</t>
         </is>
       </c>
     </row>
@@ -6216,7 +6217,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444354</t>
+          <t>2021-10-05 14:34:09.606073</t>
         </is>
       </c>
     </row>
@@ -6246,7 +6247,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444357</t>
+          <t>2021-10-05 14:34:09.606076</t>
         </is>
       </c>
     </row>
@@ -6276,7 +6277,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444359</t>
+          <t>2021-10-05 14:34:09.606078</t>
         </is>
       </c>
     </row>
@@ -6306,7 +6307,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444362</t>
+          <t>2021-10-05 14:34:09.606081</t>
         </is>
       </c>
     </row>
@@ -6336,7 +6337,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444365</t>
+          <t>2021-10-05 14:34:09.606084</t>
         </is>
       </c>
     </row>
@@ -6366,7 +6367,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444367</t>
+          <t>2021-10-05 14:34:09.606087</t>
         </is>
       </c>
     </row>
@@ -6396,7 +6397,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444370</t>
+          <t>2021-10-05 14:34:09.606089</t>
         </is>
       </c>
     </row>
@@ -6426,7 +6427,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444373</t>
+          <t>2021-10-05 14:34:09.606092</t>
         </is>
       </c>
     </row>
@@ -6456,7 +6457,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444375</t>
+          <t>2021-10-05 14:34:09.606095</t>
         </is>
       </c>
     </row>
@@ -6486,7 +6487,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444378</t>
+          <t>2021-10-05 14:34:09.606099</t>
         </is>
       </c>
     </row>
@@ -6516,7 +6517,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444381</t>
+          <t>2021-10-05 14:34:09.606102</t>
         </is>
       </c>
     </row>
@@ -6546,7 +6547,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444383</t>
+          <t>2021-10-05 14:34:09.606105</t>
         </is>
       </c>
     </row>
@@ -6576,7 +6577,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444386</t>
+          <t>2021-10-05 14:34:09.606108</t>
         </is>
       </c>
     </row>
@@ -6606,7 +6607,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444388</t>
+          <t>2021-10-05 14:34:09.606111</t>
         </is>
       </c>
     </row>
@@ -6636,7 +6637,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444391</t>
+          <t>2021-10-05 14:34:09.606114</t>
         </is>
       </c>
     </row>
@@ -6666,7 +6667,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444393</t>
+          <t>2021-10-05 14:34:09.606117</t>
         </is>
       </c>
     </row>
@@ -6696,7 +6697,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444396</t>
+          <t>2021-10-05 14:34:09.606120</t>
         </is>
       </c>
     </row>
@@ -6726,7 +6727,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444398</t>
+          <t>2021-10-05 14:34:09.606122</t>
         </is>
       </c>
     </row>
@@ -6756,7 +6757,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444401</t>
+          <t>2021-10-05 14:34:09.606125</t>
         </is>
       </c>
     </row>
@@ -6786,7 +6787,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444404</t>
+          <t>2021-10-05 14:34:09.606128</t>
         </is>
       </c>
     </row>
@@ -6816,7 +6817,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444406</t>
+          <t>2021-10-05 14:34:09.606131</t>
         </is>
       </c>
     </row>
@@ -6846,7 +6847,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444409</t>
+          <t>2021-10-05 14:34:09.606134</t>
         </is>
       </c>
     </row>
@@ -6876,7 +6877,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444411</t>
+          <t>2021-10-05 14:34:09.606136</t>
         </is>
       </c>
     </row>
@@ -6906,7 +6907,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444414</t>
+          <t>2021-10-05 14:34:09.606140</t>
         </is>
       </c>
     </row>
@@ -6936,7 +6937,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444416</t>
+          <t>2021-10-05 14:34:09.606142</t>
         </is>
       </c>
     </row>
@@ -6966,7 +6967,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444419</t>
+          <t>2021-10-05 14:34:09.606145</t>
         </is>
       </c>
     </row>
@@ -6996,7 +6997,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444422</t>
+          <t>2021-10-05 14:34:09.606148</t>
         </is>
       </c>
     </row>
@@ -7026,7 +7027,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444424</t>
+          <t>2021-10-05 14:34:09.606151</t>
         </is>
       </c>
     </row>
@@ -7056,7 +7057,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444427</t>
+          <t>2021-10-05 14:34:09.606154</t>
         </is>
       </c>
     </row>
@@ -7086,7 +7087,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444429</t>
+          <t>2021-10-05 14:34:09.606157</t>
         </is>
       </c>
     </row>
@@ -7116,7 +7117,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444432</t>
+          <t>2021-10-05 14:34:09.606159</t>
         </is>
       </c>
     </row>
@@ -7146,7 +7147,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444434</t>
+          <t>2021-10-05 14:34:09.606162</t>
         </is>
       </c>
     </row>
@@ -7176,7 +7177,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444437</t>
+          <t>2021-10-05 14:34:09.606165</t>
         </is>
       </c>
     </row>
@@ -7206,7 +7207,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444440</t>
+          <t>2021-10-05 14:34:09.606168</t>
         </is>
       </c>
     </row>
@@ -7236,7 +7237,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444442</t>
+          <t>2021-10-05 14:34:09.606171</t>
         </is>
       </c>
     </row>
@@ -7266,7 +7267,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444445</t>
+          <t>2021-10-05 14:34:09.606174</t>
         </is>
       </c>
     </row>
@@ -7296,7 +7297,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444447</t>
+          <t>2021-10-05 14:34:09.606177</t>
         </is>
       </c>
     </row>
@@ -7326,7 +7327,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444450</t>
+          <t>2021-10-05 14:34:09.606179</t>
         </is>
       </c>
     </row>
@@ -7356,7 +7357,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444452</t>
+          <t>2021-10-05 14:34:09.606182</t>
         </is>
       </c>
     </row>
@@ -7386,7 +7387,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444455</t>
+          <t>2021-10-05 14:34:09.606185</t>
         </is>
       </c>
     </row>
@@ -7416,7 +7417,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444457</t>
+          <t>2021-10-05 14:34:09.606188</t>
         </is>
       </c>
     </row>
@@ -7446,7 +7447,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444461</t>
+          <t>2021-10-05 14:34:09.606192</t>
         </is>
       </c>
     </row>
@@ -7476,7 +7477,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444464</t>
+          <t>2021-10-05 14:34:09.606195</t>
         </is>
       </c>
     </row>
@@ -7506,7 +7507,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444467</t>
+          <t>2021-10-05 14:34:09.606198</t>
         </is>
       </c>
     </row>
@@ -7536,7 +7537,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444469</t>
+          <t>2021-10-05 14:34:09.606201</t>
         </is>
       </c>
     </row>
@@ -7566,7 +7567,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444472</t>
+          <t>2021-10-05 14:34:09.606204</t>
         </is>
       </c>
     </row>
@@ -7596,7 +7597,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444474</t>
+          <t>2021-10-05 14:34:09.606207</t>
         </is>
       </c>
     </row>
@@ -7626,7 +7627,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444477</t>
+          <t>2021-10-05 14:34:09.606210</t>
         </is>
       </c>
     </row>
@@ -7656,7 +7657,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444479</t>
+          <t>2021-10-05 14:34:09.606213</t>
         </is>
       </c>
     </row>
@@ -7686,7 +7687,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444482</t>
+          <t>2021-10-05 14:34:09.606216</t>
         </is>
       </c>
     </row>
@@ -7716,7 +7717,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444484</t>
+          <t>2021-10-05 14:34:09.606219</t>
         </is>
       </c>
     </row>
@@ -7746,7 +7747,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444487</t>
+          <t>2021-10-05 14:34:09.606222</t>
         </is>
       </c>
     </row>
@@ -7776,7 +7777,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444490</t>
+          <t>2021-10-05 14:34:09.606224</t>
         </is>
       </c>
     </row>
@@ -7806,7 +7807,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444493</t>
+          <t>2021-10-05 14:34:09.606227</t>
         </is>
       </c>
     </row>
@@ -7836,7 +7837,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444495</t>
+          <t>2021-10-05 14:34:09.606230</t>
         </is>
       </c>
     </row>
@@ -7866,7 +7867,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444498</t>
+          <t>2021-10-05 14:34:09.606233</t>
         </is>
       </c>
     </row>
@@ -7896,7 +7897,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444500</t>
+          <t>2021-10-05 14:34:09.606236</t>
         </is>
       </c>
     </row>
@@ -7926,7 +7927,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444503</t>
+          <t>2021-10-05 14:34:09.606239</t>
         </is>
       </c>
     </row>
@@ -7956,7 +7957,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444506</t>
+          <t>2021-10-05 14:34:09.606242</t>
         </is>
       </c>
     </row>
@@ -7986,7 +7987,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444508</t>
+          <t>2021-10-05 14:34:09.606245</t>
         </is>
       </c>
     </row>
@@ -8016,7 +8017,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444511</t>
+          <t>2021-10-05 14:34:09.606248</t>
         </is>
       </c>
     </row>
@@ -8046,7 +8047,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444513</t>
+          <t>2021-10-05 14:34:09.606250</t>
         </is>
       </c>
     </row>
@@ -8076,7 +8077,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444519</t>
+          <t>2021-10-05 14:34:09.606253</t>
         </is>
       </c>
     </row>
@@ -8106,7 +8107,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444523</t>
+          <t>2021-10-05 14:34:09.606256</t>
         </is>
       </c>
     </row>
@@ -8136,7 +8137,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444526</t>
+          <t>2021-10-05 14:34:09.606258</t>
         </is>
       </c>
     </row>
@@ -8166,7 +8167,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444528</t>
+          <t>2021-10-05 14:34:09.606261</t>
         </is>
       </c>
     </row>
@@ -8196,7 +8197,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444531</t>
+          <t>2021-10-05 14:34:09.606265</t>
         </is>
       </c>
     </row>
@@ -8226,7 +8227,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444533</t>
+          <t>2021-10-05 14:34:09.606267</t>
         </is>
       </c>
     </row>
@@ -8256,7 +8257,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444536</t>
+          <t>2021-10-05 14:34:09.606271</t>
         </is>
       </c>
     </row>
@@ -8286,7 +8287,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444538</t>
+          <t>2021-10-05 14:34:09.606273</t>
         </is>
       </c>
     </row>
@@ -8316,7 +8317,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444541</t>
+          <t>2021-10-05 14:34:09.606276</t>
         </is>
       </c>
     </row>
@@ -8346,7 +8347,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444543</t>
+          <t>2021-10-05 14:34:09.606279</t>
         </is>
       </c>
     </row>
@@ -8376,7 +8377,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444546</t>
+          <t>2021-10-05 14:34:09.606282</t>
         </is>
       </c>
     </row>
@@ -8406,7 +8407,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444549</t>
+          <t>2021-10-05 14:34:09.606285</t>
         </is>
       </c>
     </row>
@@ -8436,7 +8437,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444551</t>
+          <t>2021-10-05 14:34:09.606288</t>
         </is>
       </c>
     </row>
@@ -8466,7 +8467,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444554</t>
+          <t>2021-10-05 14:34:09.606291</t>
         </is>
       </c>
     </row>
@@ -8496,7 +8497,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444556</t>
+          <t>2021-10-05 14:34:09.606293</t>
         </is>
       </c>
     </row>
@@ -8526,7 +8527,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444559</t>
+          <t>2021-10-05 14:34:09.606296</t>
         </is>
       </c>
     </row>
@@ -8556,7 +8557,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444562</t>
+          <t>2021-10-05 14:34:09.606299</t>
         </is>
       </c>
     </row>
@@ -8586,7 +8587,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444564</t>
+          <t>2021-10-05 14:34:09.606302</t>
         </is>
       </c>
     </row>
@@ -8616,7 +8617,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444567</t>
+          <t>2021-10-05 14:34:09.606305</t>
         </is>
       </c>
     </row>
@@ -8646,7 +8647,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444570</t>
+          <t>2021-10-05 14:34:09.606308</t>
         </is>
       </c>
     </row>
@@ -8676,7 +8677,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444572</t>
+          <t>2021-10-05 14:34:09.606311</t>
         </is>
       </c>
     </row>
@@ -8706,7 +8707,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444575</t>
+          <t>2021-10-05 14:34:09.606313</t>
         </is>
       </c>
     </row>
@@ -8736,7 +8737,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444577</t>
+          <t>2021-10-05 14:34:09.606316</t>
         </is>
       </c>
     </row>
@@ -8766,7 +8767,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444580</t>
+          <t>2021-10-05 14:34:09.606319</t>
         </is>
       </c>
     </row>
@@ -8796,7 +8797,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444582</t>
+          <t>2021-10-05 14:34:09.606322</t>
         </is>
       </c>
     </row>
@@ -8826,7 +8827,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444585</t>
+          <t>2021-10-05 14:34:09.606325</t>
         </is>
       </c>
     </row>
@@ -8856,7 +8857,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444588</t>
+          <t>2021-10-05 14:34:09.606328</t>
         </is>
       </c>
     </row>
@@ -8886,7 +8887,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444590</t>
+          <t>2021-10-05 14:34:09.606331</t>
         </is>
       </c>
     </row>
@@ -8916,7 +8917,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444593</t>
+          <t>2021-10-05 14:34:09.606334</t>
         </is>
       </c>
     </row>
@@ -8946,7 +8947,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444595</t>
+          <t>2021-10-05 14:34:09.606336</t>
         </is>
       </c>
     </row>
@@ -8976,7 +8977,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444598</t>
+          <t>2021-10-05 14:34:09.606339</t>
         </is>
       </c>
     </row>
@@ -9006,7 +9007,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444600</t>
+          <t>2021-10-05 14:34:09.606342</t>
         </is>
       </c>
     </row>
@@ -9036,7 +9037,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444603</t>
+          <t>2021-10-05 14:34:09.606345</t>
         </is>
       </c>
     </row>
@@ -9066,7 +9067,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444605</t>
+          <t>2021-10-05 14:34:09.606347</t>
         </is>
       </c>
     </row>
@@ -9096,7 +9097,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444608</t>
+          <t>2021-10-05 14:34:09.606350</t>
         </is>
       </c>
     </row>
@@ -9126,7 +9127,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444611</t>
+          <t>2021-10-05 14:34:09.606353</t>
         </is>
       </c>
     </row>
@@ -9156,7 +9157,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444613</t>
+          <t>2021-10-05 14:34:09.606356</t>
         </is>
       </c>
     </row>
@@ -9186,7 +9187,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444616</t>
+          <t>2021-10-05 14:34:09.606359</t>
         </is>
       </c>
     </row>
@@ -9216,7 +9217,7 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444618</t>
+          <t>2021-10-05 14:34:09.606361</t>
         </is>
       </c>
     </row>
@@ -9246,7 +9247,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444621</t>
+          <t>2021-10-05 14:34:09.606364</t>
         </is>
       </c>
     </row>
@@ -9276,7 +9277,7 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444623</t>
+          <t>2021-10-05 14:34:09.606367</t>
         </is>
       </c>
     </row>
@@ -9306,7 +9307,7 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444626</t>
+          <t>2021-10-05 14:34:09.606370</t>
         </is>
       </c>
     </row>
@@ -9336,7 +9337,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444629</t>
+          <t>2021-10-05 14:34:09.606373</t>
         </is>
       </c>
     </row>
@@ -9366,7 +9367,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444631</t>
+          <t>2021-10-05 14:34:09.606376</t>
         </is>
       </c>
     </row>
@@ -9396,7 +9397,7 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444634</t>
+          <t>2021-10-05 14:34:09.606379</t>
         </is>
       </c>
     </row>
@@ -9426,7 +9427,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444636</t>
+          <t>2021-10-05 14:34:09.606382</t>
         </is>
       </c>
     </row>
@@ -9456,7 +9457,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444639</t>
+          <t>2021-10-05 14:34:09.606385</t>
         </is>
       </c>
     </row>
@@ -9486,7 +9487,7 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444642</t>
+          <t>2021-10-05 14:34:09.606388</t>
         </is>
       </c>
     </row>
@@ -9516,7 +9517,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444644</t>
+          <t>2021-10-05 14:34:09.606391</t>
         </is>
       </c>
     </row>
@@ -9546,7 +9547,7 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444647</t>
+          <t>2021-10-05 14:34:09.606394</t>
         </is>
       </c>
     </row>
@@ -9576,7 +9577,7 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444650</t>
+          <t>2021-10-05 14:34:09.606396</t>
         </is>
       </c>
     </row>
@@ -9606,7 +9607,7 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444652</t>
+          <t>2021-10-05 14:34:09.606399</t>
         </is>
       </c>
     </row>
@@ -9636,7 +9637,7 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444655</t>
+          <t>2021-10-05 14:34:09.606402</t>
         </is>
       </c>
     </row>
@@ -9666,7 +9667,7 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444657</t>
+          <t>2021-10-05 14:34:09.606405</t>
         </is>
       </c>
     </row>
@@ -9696,7 +9697,7 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444660</t>
+          <t>2021-10-05 14:34:09.606407</t>
         </is>
       </c>
     </row>
@@ -9726,7 +9727,7 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444664</t>
+          <t>2021-10-05 14:34:09.606411</t>
         </is>
       </c>
     </row>
@@ -9756,7 +9757,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444667</t>
+          <t>2021-10-05 14:34:09.606415</t>
         </is>
       </c>
     </row>
@@ -9786,7 +9787,7 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444670</t>
+          <t>2021-10-05 14:34:09.606418</t>
         </is>
       </c>
     </row>
@@ -9816,7 +9817,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444673</t>
+          <t>2021-10-05 14:34:09.606420</t>
         </is>
       </c>
     </row>
@@ -9846,7 +9847,7 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444675</t>
+          <t>2021-10-05 14:34:09.606423</t>
         </is>
       </c>
     </row>
@@ -9876,7 +9877,7 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444678</t>
+          <t>2021-10-05 14:34:09.606426</t>
         </is>
       </c>
     </row>
@@ -9906,7 +9907,7 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444680</t>
+          <t>2021-10-05 14:34:09.606429</t>
         </is>
       </c>
     </row>
@@ -9936,7 +9937,7 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444683</t>
+          <t>2021-10-05 14:34:09.606432</t>
         </is>
       </c>
     </row>
@@ -9966,7 +9967,7 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444686</t>
+          <t>2021-10-05 14:34:09.606434</t>
         </is>
       </c>
     </row>
@@ -9996,7 +9997,7 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444688</t>
+          <t>2021-10-05 14:34:09.606437</t>
         </is>
       </c>
     </row>
@@ -10026,7 +10027,7 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444691</t>
+          <t>2021-10-05 14:34:09.606440</t>
         </is>
       </c>
     </row>
@@ -10056,7 +10057,7 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444694</t>
+          <t>2021-10-05 14:34:09.606443</t>
         </is>
       </c>
     </row>
@@ -10086,7 +10087,7 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444697</t>
+          <t>2021-10-05 14:34:09.606446</t>
         </is>
       </c>
     </row>
@@ -10116,7 +10117,7 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444699</t>
+          <t>2021-10-05 14:34:09.606448</t>
         </is>
       </c>
     </row>
@@ -10146,7 +10147,7 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444702</t>
+          <t>2021-10-05 14:34:09.606451</t>
         </is>
       </c>
     </row>
@@ -10176,7 +10177,7 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444704</t>
+          <t>2021-10-05 14:34:09.606454</t>
         </is>
       </c>
     </row>
@@ -10206,7 +10207,7 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444707</t>
+          <t>2021-10-05 14:34:09.606457</t>
         </is>
       </c>
     </row>
@@ -10236,7 +10237,7 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444710</t>
+          <t>2021-10-05 14:34:09.606459</t>
         </is>
       </c>
     </row>
@@ -10266,7 +10267,7 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444712</t>
+          <t>2021-10-05 14:34:09.606462</t>
         </is>
       </c>
     </row>
@@ -10296,7 +10297,7 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444715</t>
+          <t>2021-10-05 14:34:09.606465</t>
         </is>
       </c>
     </row>
@@ -10326,7 +10327,7 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444717</t>
+          <t>2021-10-05 14:34:09.606468</t>
         </is>
       </c>
     </row>
@@ -10356,7 +10357,7 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444720</t>
+          <t>2021-10-05 14:34:09.606471</t>
         </is>
       </c>
     </row>
@@ -10386,7 +10387,7 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444722</t>
+          <t>2021-10-05 14:34:09.606473</t>
         </is>
       </c>
     </row>
@@ -10416,7 +10417,7 @@
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444725</t>
+          <t>2021-10-05 14:34:09.606476</t>
         </is>
       </c>
     </row>
@@ -10446,7 +10447,7 @@
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444728</t>
+          <t>2021-10-05 14:34:09.606479</t>
         </is>
       </c>
     </row>
@@ -10476,7 +10477,7 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444730</t>
+          <t>2021-10-05 14:34:09.606482</t>
         </is>
       </c>
     </row>
@@ -10506,7 +10507,7 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444733</t>
+          <t>2021-10-05 14:34:09.606485</t>
         </is>
       </c>
     </row>
@@ -10536,7 +10537,7 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444735</t>
+          <t>2021-10-05 14:34:09.606488</t>
         </is>
       </c>
     </row>
@@ -10566,7 +10567,7 @@
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444738</t>
+          <t>2021-10-05 14:34:09.606491</t>
         </is>
       </c>
     </row>
@@ -10596,7 +10597,7 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444740</t>
+          <t>2021-10-05 14:34:09.606494</t>
         </is>
       </c>
     </row>
@@ -10626,7 +10627,7 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444743</t>
+          <t>2021-10-05 14:34:09.606497</t>
         </is>
       </c>
     </row>
@@ -10656,7 +10657,7 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444746</t>
+          <t>2021-10-05 14:34:09.606500</t>
         </is>
       </c>
     </row>
@@ -10686,7 +10687,7 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444749</t>
+          <t>2021-10-05 14:34:09.606502</t>
         </is>
       </c>
     </row>
@@ -10716,7 +10717,7 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444751</t>
+          <t>2021-10-05 14:34:09.606505</t>
         </is>
       </c>
     </row>
@@ -10746,7 +10747,7 @@
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444753</t>
+          <t>2021-10-05 14:34:09.606508</t>
         </is>
       </c>
     </row>
@@ -10776,7 +10777,7 @@
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444756</t>
+          <t>2021-10-05 14:34:09.606511</t>
         </is>
       </c>
     </row>
@@ -10806,7 +10807,7 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444759</t>
+          <t>2021-10-05 14:34:09.606514</t>
         </is>
       </c>
     </row>
@@ -10836,7 +10837,7 @@
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444761</t>
+          <t>2021-10-05 14:34:09.606516</t>
         </is>
       </c>
     </row>
@@ -10866,7 +10867,7 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444764</t>
+          <t>2021-10-05 14:34:09.606519</t>
         </is>
       </c>
     </row>
@@ -10896,7 +10897,7 @@
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444766</t>
+          <t>2021-10-05 14:34:09.606522</t>
         </is>
       </c>
     </row>
@@ -10926,7 +10927,7 @@
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444769</t>
+          <t>2021-10-05 14:34:09.606525</t>
         </is>
       </c>
     </row>
@@ -10956,7 +10957,7 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444771</t>
+          <t>2021-10-05 14:34:09.606528</t>
         </is>
       </c>
     </row>
@@ -10986,7 +10987,7 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444774</t>
+          <t>2021-10-05 14:34:09.606531</t>
         </is>
       </c>
     </row>
@@ -11016,7 +11017,7 @@
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444776</t>
+          <t>2021-10-05 14:34:09.606534</t>
         </is>
       </c>
     </row>
@@ -11046,7 +11047,7 @@
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444781</t>
+          <t>2021-10-05 14:34:09.606538</t>
         </is>
       </c>
     </row>
@@ -11076,7 +11077,7 @@
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444784</t>
+          <t>2021-10-05 14:34:09.606542</t>
         </is>
       </c>
     </row>
@@ -11106,7 +11107,7 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444787</t>
+          <t>2021-10-05 14:34:09.606544</t>
         </is>
       </c>
     </row>
@@ -11136,7 +11137,7 @@
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444790</t>
+          <t>2021-10-05 14:34:09.606547</t>
         </is>
       </c>
     </row>
@@ -11166,7 +11167,7 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444793</t>
+          <t>2021-10-05 14:34:09.606550</t>
         </is>
       </c>
     </row>
@@ -11196,7 +11197,7 @@
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444795</t>
+          <t>2021-10-05 14:34:09.606553</t>
         </is>
       </c>
     </row>
@@ -11226,7 +11227,7 @@
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444798</t>
+          <t>2021-10-05 14:34:09.606555</t>
         </is>
       </c>
     </row>
@@ -11256,7 +11257,7 @@
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444800</t>
+          <t>2021-10-05 14:34:09.606558</t>
         </is>
       </c>
     </row>
@@ -11286,7 +11287,7 @@
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444803</t>
+          <t>2021-10-05 14:34:09.606561</t>
         </is>
       </c>
     </row>
@@ -11316,7 +11317,7 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444805</t>
+          <t>2021-10-05 14:34:09.606564</t>
         </is>
       </c>
     </row>
@@ -11346,7 +11347,7 @@
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444808</t>
+          <t>2021-10-05 14:34:09.606567</t>
         </is>
       </c>
     </row>
@@ -11376,7 +11377,7 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444810</t>
+          <t>2021-10-05 14:34:09.606570</t>
         </is>
       </c>
     </row>
@@ -11406,7 +11407,7 @@
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444813</t>
+          <t>2021-10-05 14:34:09.606572</t>
         </is>
       </c>
     </row>
@@ -11436,7 +11437,7 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444815</t>
+          <t>2021-10-05 14:34:09.606575</t>
         </is>
       </c>
     </row>
@@ -11466,7 +11467,7 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444818</t>
+          <t>2021-10-05 14:34:09.606578</t>
         </is>
       </c>
     </row>
@@ -11496,7 +11497,7 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444821</t>
+          <t>2021-10-05 14:34:09.606581</t>
         </is>
       </c>
     </row>
@@ -11526,7 +11527,7 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444823</t>
+          <t>2021-10-05 14:34:09.606584</t>
         </is>
       </c>
     </row>
@@ -11556,7 +11557,7 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444826</t>
+          <t>2021-10-05 14:34:09.606587</t>
         </is>
       </c>
     </row>
@@ -11586,7 +11587,7 @@
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444828</t>
+          <t>2021-10-05 14:34:09.606590</t>
         </is>
       </c>
     </row>
@@ -11616,7 +11617,7 @@
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444831</t>
+          <t>2021-10-05 14:34:09.606593</t>
         </is>
       </c>
     </row>
@@ -11646,7 +11647,7 @@
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444833</t>
+          <t>2021-10-05 14:34:09.606596</t>
         </is>
       </c>
     </row>
@@ -11676,7 +11677,7 @@
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444836</t>
+          <t>2021-10-05 14:34:09.606599</t>
         </is>
       </c>
     </row>
@@ -11706,7 +11707,7 @@
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444838</t>
+          <t>2021-10-05 14:34:09.606602</t>
         </is>
       </c>
     </row>
@@ -11736,7 +11737,7 @@
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444841</t>
+          <t>2021-10-05 14:34:09.606604</t>
         </is>
       </c>
     </row>
@@ -11766,7 +11767,7 @@
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444843</t>
+          <t>2021-10-05 14:34:09.606607</t>
         </is>
       </c>
     </row>
@@ -11796,7 +11797,7 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444846</t>
+          <t>2021-10-05 14:34:09.606610</t>
         </is>
       </c>
     </row>
@@ -11826,7 +11827,7 @@
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444848</t>
+          <t>2021-10-05 14:34:09.606613</t>
         </is>
       </c>
     </row>
@@ -11856,7 +11857,7 @@
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444851</t>
+          <t>2021-10-05 14:34:09.606616</t>
         </is>
       </c>
     </row>
@@ -11886,7 +11887,7 @@
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444854</t>
+          <t>2021-10-05 14:34:09.606618</t>
         </is>
       </c>
     </row>
@@ -11916,7 +11917,7 @@
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444856</t>
+          <t>2021-10-05 14:34:09.606621</t>
         </is>
       </c>
     </row>
@@ -11946,7 +11947,7 @@
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444859</t>
+          <t>2021-10-05 14:34:09.606624</t>
         </is>
       </c>
     </row>
@@ -11976,7 +11977,7 @@
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444861</t>
+          <t>2021-10-05 14:34:09.606627</t>
         </is>
       </c>
     </row>
@@ -12006,7 +12007,7 @@
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444864</t>
+          <t>2021-10-05 14:34:09.606630</t>
         </is>
       </c>
     </row>
@@ -12036,7 +12037,7 @@
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444866</t>
+          <t>2021-10-05 14:34:09.606633</t>
         </is>
       </c>
     </row>
@@ -12066,7 +12067,7 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444869</t>
+          <t>2021-10-05 14:34:09.606636</t>
         </is>
       </c>
     </row>
@@ -12096,7 +12097,7 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444871</t>
+          <t>2021-10-05 14:34:09.606639</t>
         </is>
       </c>
     </row>
@@ -12126,7 +12127,7 @@
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444874</t>
+          <t>2021-10-05 14:34:09.606642</t>
         </is>
       </c>
     </row>
@@ -12156,7 +12157,7 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444876</t>
+          <t>2021-10-05 14:34:09.606644</t>
         </is>
       </c>
     </row>
@@ -12186,7 +12187,7 @@
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444879</t>
+          <t>2021-10-05 14:34:09.606647</t>
         </is>
       </c>
     </row>
@@ -12216,7 +12217,7 @@
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444881</t>
+          <t>2021-10-05 14:34:09.606650</t>
         </is>
       </c>
     </row>
@@ -12246,7 +12247,7 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444884</t>
+          <t>2021-10-05 14:34:09.606653</t>
         </is>
       </c>
     </row>
@@ -12276,7 +12277,7 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444887</t>
+          <t>2021-10-05 14:34:09.606656</t>
         </is>
       </c>
     </row>
@@ -12306,7 +12307,7 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444889</t>
+          <t>2021-10-05 14:34:09.606658</t>
         </is>
       </c>
     </row>
@@ -12336,7 +12337,7 @@
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444892</t>
+          <t>2021-10-05 14:34:09.606661</t>
         </is>
       </c>
     </row>
@@ -12366,7 +12367,7 @@
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444894</t>
+          <t>2021-10-05 14:34:09.606664</t>
         </is>
       </c>
     </row>
@@ -12396,7 +12397,7 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444897</t>
+          <t>2021-10-05 14:34:09.606667</t>
         </is>
       </c>
     </row>
@@ -12426,7 +12427,7 @@
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444899</t>
+          <t>2021-10-05 14:34:09.606670</t>
         </is>
       </c>
     </row>
@@ -12456,7 +12457,7 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444902</t>
+          <t>2021-10-05 14:34:09.606672</t>
         </is>
       </c>
     </row>
@@ -12486,7 +12487,7 @@
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444906</t>
+          <t>2021-10-05 14:34:09.606678</t>
         </is>
       </c>
     </row>
@@ -12516,7 +12517,7 @@
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444909</t>
+          <t>2021-10-05 14:34:09.606681</t>
         </is>
       </c>
     </row>
@@ -12546,7 +12547,7 @@
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444912</t>
+          <t>2021-10-05 14:34:09.606684</t>
         </is>
       </c>
     </row>
@@ -12576,7 +12577,7 @@
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444914</t>
+          <t>2021-10-05 14:34:09.606687</t>
         </is>
       </c>
     </row>
@@ -12606,7 +12607,7 @@
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444917</t>
+          <t>2021-10-05 14:34:09.606689</t>
         </is>
       </c>
     </row>
@@ -12636,7 +12637,7 @@
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444919</t>
+          <t>2021-10-05 14:34:09.606693</t>
         </is>
       </c>
     </row>
@@ -12666,7 +12667,7 @@
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444922</t>
+          <t>2021-10-05 14:34:09.606695</t>
         </is>
       </c>
     </row>
@@ -12696,7 +12697,7 @@
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444924</t>
+          <t>2021-10-05 14:34:09.606698</t>
         </is>
       </c>
     </row>
@@ -12726,7 +12727,7 @@
       </c>
       <c r="F410" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444927</t>
+          <t>2021-10-05 14:34:09.606701</t>
         </is>
       </c>
     </row>
@@ -12756,7 +12757,7 @@
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444930</t>
+          <t>2021-10-05 14:34:09.606704</t>
         </is>
       </c>
     </row>
@@ -12786,7 +12787,7 @@
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444932</t>
+          <t>2021-10-05 14:34:09.606706</t>
         </is>
       </c>
     </row>
@@ -12816,7 +12817,7 @@
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444935</t>
+          <t>2021-10-05 14:34:09.606709</t>
         </is>
       </c>
     </row>
@@ -12846,7 +12847,7 @@
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444937</t>
+          <t>2021-10-05 14:34:09.606712</t>
         </is>
       </c>
     </row>
@@ -12876,7 +12877,7 @@
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444940</t>
+          <t>2021-10-05 14:34:09.606715</t>
         </is>
       </c>
     </row>
@@ -12906,7 +12907,7 @@
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444942</t>
+          <t>2021-10-05 14:34:09.606718</t>
         </is>
       </c>
     </row>
@@ -12936,7 +12937,7 @@
       </c>
       <c r="F417" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444945</t>
+          <t>2021-10-05 14:34:09.606721</t>
         </is>
       </c>
     </row>
@@ -12966,7 +12967,7 @@
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444948</t>
+          <t>2021-10-05 14:34:09.606724</t>
         </is>
       </c>
     </row>
@@ -12996,7 +12997,7 @@
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444950</t>
+          <t>2021-10-05 14:34:09.606726</t>
         </is>
       </c>
     </row>
@@ -13026,7 +13027,7 @@
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444953</t>
+          <t>2021-10-05 14:34:09.606729</t>
         </is>
       </c>
     </row>
@@ -13056,7 +13057,7 @@
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444955</t>
+          <t>2021-10-05 14:34:09.606732</t>
         </is>
       </c>
     </row>
@@ -13086,7 +13087,7 @@
       </c>
       <c r="F422" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444958</t>
+          <t>2021-10-05 14:34:09.606735</t>
         </is>
       </c>
     </row>
@@ -13116,7 +13117,7 @@
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444960</t>
+          <t>2021-10-05 14:34:09.606738</t>
         </is>
       </c>
     </row>
@@ -13146,7 +13147,7 @@
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444963</t>
+          <t>2021-10-05 14:34:09.606740</t>
         </is>
       </c>
     </row>
@@ -13176,7 +13177,7 @@
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444965</t>
+          <t>2021-10-05 14:34:09.606743</t>
         </is>
       </c>
     </row>
@@ -13206,7 +13207,7 @@
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444968</t>
+          <t>2021-10-05 14:34:09.606746</t>
         </is>
       </c>
     </row>
@@ -13236,7 +13237,7 @@
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444970</t>
+          <t>2021-10-05 14:34:09.606749</t>
         </is>
       </c>
     </row>
@@ -13266,7 +13267,7 @@
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444973</t>
+          <t>2021-10-05 14:34:09.606752</t>
         </is>
       </c>
     </row>
@@ -13296,7 +13297,7 @@
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444975</t>
+          <t>2021-10-05 14:34:09.606755</t>
         </is>
       </c>
     </row>
@@ -13326,7 +13327,7 @@
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444978</t>
+          <t>2021-10-05 14:34:09.606758</t>
         </is>
       </c>
     </row>
@@ -13356,7 +13357,7 @@
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444980</t>
+          <t>2021-10-05 14:34:09.606761</t>
         </is>
       </c>
     </row>
@@ -13386,7 +13387,7 @@
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444983</t>
+          <t>2021-10-05 14:34:09.606764</t>
         </is>
       </c>
     </row>
@@ -13416,7 +13417,7 @@
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444986</t>
+          <t>2021-10-05 14:34:09.606766</t>
         </is>
       </c>
     </row>
@@ -13446,7 +13447,7 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444988</t>
+          <t>2021-10-05 14:34:09.606769</t>
         </is>
       </c>
     </row>
@@ -13476,7 +13477,7 @@
       </c>
       <c r="F435" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444991</t>
+          <t>2021-10-05 14:34:09.606772</t>
         </is>
       </c>
     </row>
@@ -13506,7 +13507,7 @@
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444993</t>
+          <t>2021-10-05 14:34:09.606775</t>
         </is>
       </c>
     </row>
@@ -13536,7 +13537,7 @@
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444996</t>
+          <t>2021-10-05 14:34:09.606778</t>
         </is>
       </c>
     </row>
@@ -13566,7 +13567,7 @@
       </c>
       <c r="F438" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.444998</t>
+          <t>2021-10-05 14:34:09.606780</t>
         </is>
       </c>
     </row>
@@ -13596,7 +13597,7 @@
       </c>
       <c r="F439" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445001</t>
+          <t>2021-10-05 14:34:09.606783</t>
         </is>
       </c>
     </row>
@@ -13626,7 +13627,7 @@
       </c>
       <c r="F440" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445003</t>
+          <t>2021-10-05 14:34:09.606786</t>
         </is>
       </c>
     </row>
@@ -13656,7 +13657,7 @@
       </c>
       <c r="F441" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445006</t>
+          <t>2021-10-05 14:34:09.606789</t>
         </is>
       </c>
     </row>
@@ -13686,7 +13687,7 @@
       </c>
       <c r="F442" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445008</t>
+          <t>2021-10-05 14:34:09.606792</t>
         </is>
       </c>
     </row>
@@ -13716,7 +13717,7 @@
       </c>
       <c r="F443" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445011</t>
+          <t>2021-10-05 14:34:09.606794</t>
         </is>
       </c>
     </row>
@@ -13746,7 +13747,7 @@
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445014</t>
+          <t>2021-10-05 14:34:09.606797</t>
         </is>
       </c>
     </row>
@@ -13776,7 +13777,7 @@
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445016</t>
+          <t>2021-10-05 14:34:09.606800</t>
         </is>
       </c>
     </row>
@@ -13806,7 +13807,7 @@
       </c>
       <c r="F446" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445019</t>
+          <t>2021-10-05 14:34:09.606803</t>
         </is>
       </c>
     </row>
@@ -13836,7 +13837,7 @@
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445021</t>
+          <t>2021-10-05 14:34:09.606805</t>
         </is>
       </c>
     </row>
@@ -13866,7 +13867,7 @@
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445024</t>
+          <t>2021-10-05 14:34:09.606808</t>
         </is>
       </c>
     </row>
@@ -13896,7 +13897,7 @@
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445027</t>
+          <t>2021-10-05 14:34:09.606811</t>
         </is>
       </c>
     </row>
@@ -13926,7 +13927,7 @@
       </c>
       <c r="F450" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445029</t>
+          <t>2021-10-05 14:34:09.606814</t>
         </is>
       </c>
     </row>
@@ -13956,7 +13957,7 @@
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445032</t>
+          <t>2021-10-05 14:34:09.606816</t>
         </is>
       </c>
     </row>
@@ -13986,7 +13987,7 @@
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445034</t>
+          <t>2021-10-05 14:34:09.606819</t>
         </is>
       </c>
     </row>
@@ -14016,7 +14017,7 @@
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445037</t>
+          <t>2021-10-05 14:34:09.606822</t>
         </is>
       </c>
     </row>
@@ -14046,7 +14047,7 @@
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445040</t>
+          <t>2021-10-05 14:34:09.606825</t>
         </is>
       </c>
     </row>
@@ -14076,7 +14077,7 @@
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445042</t>
+          <t>2021-10-05 14:34:09.606828</t>
         </is>
       </c>
     </row>
@@ -14106,7 +14107,7 @@
       </c>
       <c r="F456" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445045</t>
+          <t>2021-10-05 14:34:09.606831</t>
         </is>
       </c>
     </row>
@@ -14136,7 +14137,7 @@
       </c>
       <c r="F457" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445047</t>
+          <t>2021-10-05 14:34:09.606833</t>
         </is>
       </c>
     </row>
@@ -14166,7 +14167,7 @@
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445052</t>
+          <t>2021-10-05 14:34:09.606838</t>
         </is>
       </c>
     </row>
@@ -14196,7 +14197,7 @@
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445055</t>
+          <t>2021-10-05 14:34:09.606842</t>
         </is>
       </c>
     </row>
@@ -14226,7 +14227,7 @@
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445058</t>
+          <t>2021-10-05 14:34:09.606845</t>
         </is>
       </c>
     </row>
@@ -14256,7 +14257,7 @@
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445061</t>
+          <t>2021-10-05 14:34:09.606848</t>
         </is>
       </c>
     </row>
@@ -14286,7 +14287,7 @@
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445063</t>
+          <t>2021-10-05 14:34:09.606851</t>
         </is>
       </c>
     </row>
@@ -14316,7 +14317,7 @@
       </c>
       <c r="F463" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445065</t>
+          <t>2021-10-05 14:34:09.606853</t>
         </is>
       </c>
     </row>
@@ -14346,7 +14347,7 @@
       </c>
       <c r="F464" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445068</t>
+          <t>2021-10-05 14:34:09.606856</t>
         </is>
       </c>
     </row>
@@ -14376,7 +14377,7 @@
       </c>
       <c r="F465" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445071</t>
+          <t>2021-10-05 14:34:09.606859</t>
         </is>
       </c>
     </row>
@@ -14406,7 +14407,7 @@
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445073</t>
+          <t>2021-10-05 14:34:09.606862</t>
         </is>
       </c>
     </row>
@@ -14436,7 +14437,7 @@
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445076</t>
+          <t>2021-10-05 14:34:09.606865</t>
         </is>
       </c>
     </row>
@@ -14466,7 +14467,7 @@
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445079</t>
+          <t>2021-10-05 14:34:09.606867</t>
         </is>
       </c>
     </row>
@@ -14496,7 +14497,7 @@
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445081</t>
+          <t>2021-10-05 14:34:09.606870</t>
         </is>
       </c>
     </row>
@@ -14526,7 +14527,7 @@
       </c>
       <c r="F470" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445084</t>
+          <t>2021-10-05 14:34:09.606873</t>
         </is>
       </c>
     </row>
@@ -14556,7 +14557,7 @@
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445087</t>
+          <t>2021-10-05 14:34:09.606876</t>
         </is>
       </c>
     </row>
@@ -14586,7 +14587,7 @@
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445089</t>
+          <t>2021-10-05 14:34:09.606879</t>
         </is>
       </c>
     </row>
@@ -14616,7 +14617,7 @@
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445092</t>
+          <t>2021-10-05 14:34:09.606882</t>
         </is>
       </c>
     </row>
@@ -14646,7 +14647,7 @@
       </c>
       <c r="F474" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445095</t>
+          <t>2021-10-05 14:34:09.606885</t>
         </is>
       </c>
     </row>
@@ -14676,7 +14677,7 @@
       </c>
       <c r="F475" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445097</t>
+          <t>2021-10-05 14:34:09.606887</t>
         </is>
       </c>
     </row>
@@ -14706,7 +14707,7 @@
       </c>
       <c r="F476" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445100</t>
+          <t>2021-10-05 14:34:09.606890</t>
         </is>
       </c>
     </row>
@@ -14736,7 +14737,7 @@
       </c>
       <c r="F477" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445102</t>
+          <t>2021-10-05 14:34:09.606893</t>
         </is>
       </c>
     </row>
@@ -14766,7 +14767,7 @@
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445105</t>
+          <t>2021-10-05 14:34:09.606896</t>
         </is>
       </c>
     </row>
@@ -14796,7 +14797,7 @@
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445108</t>
+          <t>2021-10-05 14:34:09.606899</t>
         </is>
       </c>
     </row>
@@ -14826,7 +14827,7 @@
       </c>
       <c r="F480" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445110</t>
+          <t>2021-10-05 14:34:09.606901</t>
         </is>
       </c>
     </row>
@@ -14856,7 +14857,7 @@
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445113</t>
+          <t>2021-10-05 14:34:09.606904</t>
         </is>
       </c>
     </row>
@@ -14886,7 +14887,7 @@
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445115</t>
+          <t>2021-10-05 14:34:09.606907</t>
         </is>
       </c>
     </row>
@@ -14916,7 +14917,7 @@
       </c>
       <c r="F483" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445118</t>
+          <t>2021-10-05 14:34:09.606910</t>
         </is>
       </c>
     </row>
@@ -14946,7 +14947,7 @@
       </c>
       <c r="F484" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445120</t>
+          <t>2021-10-05 14:34:09.606913</t>
         </is>
       </c>
     </row>
@@ -14976,7 +14977,7 @@
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445123</t>
+          <t>2021-10-05 14:34:09.606915</t>
         </is>
       </c>
     </row>
@@ -15006,7 +15007,7 @@
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445125</t>
+          <t>2021-10-05 14:34:09.606918</t>
         </is>
       </c>
     </row>
@@ -15036,7 +15037,7 @@
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445128</t>
+          <t>2021-10-05 14:34:09.606921</t>
         </is>
       </c>
     </row>
@@ -15066,7 +15067,7 @@
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445130</t>
+          <t>2021-10-05 14:34:09.606924</t>
         </is>
       </c>
     </row>
@@ -15096,7 +15097,7 @@
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445133</t>
+          <t>2021-10-05 14:34:09.606927</t>
         </is>
       </c>
     </row>
@@ -15126,7 +15127,7 @@
       </c>
       <c r="F490" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445135</t>
+          <t>2021-10-05 14:34:09.606930</t>
         </is>
       </c>
     </row>
@@ -15156,7 +15157,7 @@
       </c>
       <c r="F491" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445138</t>
+          <t>2021-10-05 14:34:09.606932</t>
         </is>
       </c>
     </row>
@@ -15186,7 +15187,7 @@
       </c>
       <c r="F492" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445140</t>
+          <t>2021-10-05 14:34:09.606935</t>
         </is>
       </c>
     </row>
@@ -15216,7 +15217,7 @@
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445143</t>
+          <t>2021-10-05 14:34:09.606938</t>
         </is>
       </c>
     </row>
@@ -15246,7 +15247,7 @@
       </c>
       <c r="F494" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445145</t>
+          <t>2021-10-05 14:34:09.606941</t>
         </is>
       </c>
     </row>
@@ -15276,7 +15277,7 @@
       </c>
       <c r="F495" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445148</t>
+          <t>2021-10-05 14:34:09.606944</t>
         </is>
       </c>
     </row>
@@ -15306,7 +15307,7 @@
       </c>
       <c r="F496" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445151</t>
+          <t>2021-10-05 14:34:09.606946</t>
         </is>
       </c>
     </row>
@@ -15336,7 +15337,7 @@
       </c>
       <c r="F497" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445153</t>
+          <t>2021-10-05 14:34:09.606949</t>
         </is>
       </c>
     </row>
@@ -15366,7 +15367,7 @@
       </c>
       <c r="F498" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445156</t>
+          <t>2021-10-05 14:34:09.606952</t>
         </is>
       </c>
     </row>
@@ -15396,7 +15397,7 @@
       </c>
       <c r="F499" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445158</t>
+          <t>2021-10-05 14:34:09.606955</t>
         </is>
       </c>
     </row>
@@ -15426,7 +15427,7 @@
       </c>
       <c r="F500" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445161</t>
+          <t>2021-10-05 14:34:09.606958</t>
         </is>
       </c>
     </row>
@@ -15456,7 +15457,7 @@
       </c>
       <c r="F501" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445163</t>
+          <t>2021-10-05 14:34:09.606961</t>
         </is>
       </c>
     </row>
@@ -15486,7 +15487,7 @@
       </c>
       <c r="F502" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445166</t>
+          <t>2021-10-05 14:34:09.606964</t>
         </is>
       </c>
     </row>
@@ -15516,7 +15517,7 @@
       </c>
       <c r="F503" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445168</t>
+          <t>2021-10-05 14:34:09.606967</t>
         </is>
       </c>
     </row>
@@ -15546,7 +15547,7 @@
       </c>
       <c r="F504" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445171</t>
+          <t>2021-10-05 14:34:09.606970</t>
         </is>
       </c>
     </row>
@@ -15576,7 +15577,7 @@
       </c>
       <c r="F505" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445174</t>
+          <t>2021-10-05 14:34:09.606973</t>
         </is>
       </c>
     </row>
@@ -15606,7 +15607,7 @@
       </c>
       <c r="F506" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445176</t>
+          <t>2021-10-05 14:34:09.606976</t>
         </is>
       </c>
     </row>
@@ -15636,7 +15637,7 @@
       </c>
       <c r="F507" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445179</t>
+          <t>2021-10-05 14:34:09.606978</t>
         </is>
       </c>
     </row>
@@ -15666,7 +15667,7 @@
       </c>
       <c r="F508" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445182</t>
+          <t>2021-10-05 14:34:09.606982</t>
         </is>
       </c>
     </row>
@@ -15696,7 +15697,7 @@
       </c>
       <c r="F509" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445184</t>
+          <t>2021-10-05 14:34:09.606984</t>
         </is>
       </c>
     </row>
@@ -15726,7 +15727,7 @@
       </c>
       <c r="F510" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445187</t>
+          <t>2021-10-05 14:34:09.606987</t>
         </is>
       </c>
     </row>
@@ -15756,7 +15757,7 @@
       </c>
       <c r="F511" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445189</t>
+          <t>2021-10-05 14:34:09.606990</t>
         </is>
       </c>
     </row>
@@ -15786,7 +15787,7 @@
       </c>
       <c r="F512" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445192</t>
+          <t>2021-10-05 14:34:09.606993</t>
         </is>
       </c>
     </row>
@@ -15816,7 +15817,7 @@
       </c>
       <c r="F513" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445194</t>
+          <t>2021-10-05 14:34:09.606996</t>
         </is>
       </c>
     </row>
@@ -15846,7 +15847,7 @@
       </c>
       <c r="F514" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445197</t>
+          <t>2021-10-05 14:34:09.606998</t>
         </is>
       </c>
     </row>
@@ -15876,7 +15877,7 @@
       </c>
       <c r="F515" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445200</t>
+          <t>2021-10-05 14:34:09.607001</t>
         </is>
       </c>
     </row>
@@ -15906,7 +15907,7 @@
       </c>
       <c r="F516" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445202</t>
+          <t>2021-10-05 14:34:09.607004</t>
         </is>
       </c>
     </row>
@@ -15936,7 +15937,7 @@
       </c>
       <c r="F517" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445205</t>
+          <t>2021-10-05 14:34:09.607007</t>
         </is>
       </c>
     </row>
@@ -15966,7 +15967,7 @@
       </c>
       <c r="F518" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445207</t>
+          <t>2021-10-05 14:34:09.607010</t>
         </is>
       </c>
     </row>
@@ -15996,7 +15997,7 @@
       </c>
       <c r="F519" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445210</t>
+          <t>2021-10-05 14:34:09.607013</t>
         </is>
       </c>
     </row>
@@ -16026,7 +16027,7 @@
       </c>
       <c r="F520" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445212</t>
+          <t>2021-10-05 14:34:09.607016</t>
         </is>
       </c>
     </row>
@@ -16056,7 +16057,7 @@
       </c>
       <c r="F521" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445215</t>
+          <t>2021-10-05 14:34:09.607019</t>
         </is>
       </c>
     </row>
@@ -16086,7 +16087,7 @@
       </c>
       <c r="F522" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445219</t>
+          <t>2021-10-05 14:34:09.607024</t>
         </is>
       </c>
     </row>
@@ -16116,7 +16117,7 @@
       </c>
       <c r="F523" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445223</t>
+          <t>2021-10-05 14:34:09.607027</t>
         </is>
       </c>
     </row>
@@ -16146,7 +16147,7 @@
       </c>
       <c r="F524" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445226</t>
+          <t>2021-10-05 14:34:09.607030</t>
         </is>
       </c>
     </row>
@@ -16176,7 +16177,7 @@
       </c>
       <c r="F525" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445228</t>
+          <t>2021-10-05 14:34:09.607033</t>
         </is>
       </c>
     </row>
@@ -16206,7 +16207,7 @@
       </c>
       <c r="F526" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445231</t>
+          <t>2021-10-05 14:34:09.607036</t>
         </is>
       </c>
     </row>
@@ -16236,7 +16237,7 @@
       </c>
       <c r="F527" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445233</t>
+          <t>2021-10-05 14:34:09.607039</t>
         </is>
       </c>
     </row>
@@ -16266,7 +16267,7 @@
       </c>
       <c r="F528" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445236</t>
+          <t>2021-10-05 14:34:09.607041</t>
         </is>
       </c>
     </row>
@@ -16296,7 +16297,7 @@
       </c>
       <c r="F529" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445239</t>
+          <t>2021-10-05 14:34:09.607045</t>
         </is>
       </c>
     </row>
@@ -16326,7 +16327,7 @@
       </c>
       <c r="F530" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445241</t>
+          <t>2021-10-05 14:34:09.607047</t>
         </is>
       </c>
     </row>
@@ -16356,7 +16357,7 @@
       </c>
       <c r="F531" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445244</t>
+          <t>2021-10-05 14:34:09.607050</t>
         </is>
       </c>
     </row>
@@ -16386,7 +16387,7 @@
       </c>
       <c r="F532" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445246</t>
+          <t>2021-10-05 14:34:09.607053</t>
         </is>
       </c>
     </row>
@@ -16416,7 +16417,7 @@
       </c>
       <c r="F533" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445249</t>
+          <t>2021-10-05 14:34:09.607056</t>
         </is>
       </c>
     </row>
@@ -16446,7 +16447,7 @@
       </c>
       <c r="F534" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445251</t>
+          <t>2021-10-05 14:34:09.607058</t>
         </is>
       </c>
     </row>
@@ -16476,7 +16477,7 @@
       </c>
       <c r="F535" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445254</t>
+          <t>2021-10-05 14:34:09.607061</t>
         </is>
       </c>
     </row>
@@ -16506,7 +16507,7 @@
       </c>
       <c r="F536" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445257</t>
+          <t>2021-10-05 14:34:09.607064</t>
         </is>
       </c>
     </row>
@@ -16536,7 +16537,7 @@
       </c>
       <c r="F537" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445259</t>
+          <t>2021-10-05 14:34:09.607067</t>
         </is>
       </c>
     </row>
@@ -16566,7 +16567,7 @@
       </c>
       <c r="F538" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445262</t>
+          <t>2021-10-05 14:34:09.607069</t>
         </is>
       </c>
     </row>
@@ -16596,7 +16597,7 @@
       </c>
       <c r="F539" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445264</t>
+          <t>2021-10-05 14:34:09.607072</t>
         </is>
       </c>
     </row>
@@ -16626,7 +16627,7 @@
       </c>
       <c r="F540" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445267</t>
+          <t>2021-10-05 14:34:09.607075</t>
         </is>
       </c>
     </row>
@@ -16656,7 +16657,7 @@
       </c>
       <c r="F541" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445270</t>
+          <t>2021-10-05 14:34:09.607078</t>
         </is>
       </c>
     </row>
@@ -16686,7 +16687,7 @@
       </c>
       <c r="F542" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445273</t>
+          <t>2021-10-05 14:34:09.607081</t>
         </is>
       </c>
     </row>
@@ -16716,7 +16717,7 @@
       </c>
       <c r="F543" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445275</t>
+          <t>2021-10-05 14:34:09.607084</t>
         </is>
       </c>
     </row>
@@ -16746,7 +16747,7 @@
       </c>
       <c r="F544" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445278</t>
+          <t>2021-10-05 14:34:09.607087</t>
         </is>
       </c>
     </row>
@@ -16776,7 +16777,7 @@
       </c>
       <c r="F545" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445280</t>
+          <t>2021-10-05 14:34:09.607090</t>
         </is>
       </c>
     </row>
@@ -16806,7 +16807,7 @@
       </c>
       <c r="F546" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445283</t>
+          <t>2021-10-05 14:34:09.607092</t>
         </is>
       </c>
     </row>
@@ -16836,7 +16837,7 @@
       </c>
       <c r="F547" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445285</t>
+          <t>2021-10-05 14:34:09.607095</t>
         </is>
       </c>
     </row>
@@ -16866,7 +16867,7 @@
       </c>
       <c r="F548" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445288</t>
+          <t>2021-10-05 14:34:09.607098</t>
         </is>
       </c>
     </row>
@@ -16896,7 +16897,7 @@
       </c>
       <c r="F549" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445290</t>
+          <t>2021-10-05 14:34:09.607101</t>
         </is>
       </c>
     </row>
@@ -16926,7 +16927,7 @@
       </c>
       <c r="F550" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445293</t>
+          <t>2021-10-05 14:34:09.607104</t>
         </is>
       </c>
     </row>
@@ -16956,7 +16957,7 @@
       </c>
       <c r="F551" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445296</t>
+          <t>2021-10-05 14:34:09.607106</t>
         </is>
       </c>
     </row>
@@ -16986,7 +16987,7 @@
       </c>
       <c r="F552" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445298</t>
+          <t>2021-10-05 14:34:09.607109</t>
         </is>
       </c>
     </row>
@@ -17016,7 +17017,7 @@
       </c>
       <c r="F553" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445301</t>
+          <t>2021-10-05 14:34:09.607112</t>
         </is>
       </c>
     </row>
@@ -17046,7 +17047,7 @@
       </c>
       <c r="F554" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445304</t>
+          <t>2021-10-05 14:34:09.607115</t>
         </is>
       </c>
     </row>
@@ -17076,7 +17077,7 @@
       </c>
       <c r="F555" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445306</t>
+          <t>2021-10-05 14:34:09.607118</t>
         </is>
       </c>
     </row>
@@ -17106,7 +17107,7 @@
       </c>
       <c r="F556" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445309</t>
+          <t>2021-10-05 14:34:09.607120</t>
         </is>
       </c>
     </row>
@@ -17136,7 +17137,7 @@
       </c>
       <c r="F557" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445311</t>
+          <t>2021-10-05 14:34:09.607123</t>
         </is>
       </c>
     </row>
@@ -17166,7 +17167,7 @@
       </c>
       <c r="F558" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445314</t>
+          <t>2021-10-05 14:34:09.607126</t>
         </is>
       </c>
     </row>
@@ -17196,7 +17197,7 @@
       </c>
       <c r="F559" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445317</t>
+          <t>2021-10-05 14:34:09.607129</t>
         </is>
       </c>
     </row>
@@ -17226,7 +17227,7 @@
       </c>
       <c r="F560" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445319</t>
+          <t>2021-10-05 14:34:09.607131</t>
         </is>
       </c>
     </row>
@@ -17256,7 +17257,7 @@
       </c>
       <c r="F561" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445322</t>
+          <t>2021-10-05 14:34:09.607134</t>
         </is>
       </c>
     </row>
@@ -17286,7 +17287,7 @@
       </c>
       <c r="F562" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445324</t>
+          <t>2021-10-05 14:34:09.607137</t>
         </is>
       </c>
     </row>
@@ -17316,7 +17317,7 @@
       </c>
       <c r="F563" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445327</t>
+          <t>2021-10-05 14:34:09.607139</t>
         </is>
       </c>
     </row>
@@ -17346,7 +17347,7 @@
       </c>
       <c r="F564" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445329</t>
+          <t>2021-10-05 14:34:09.607142</t>
         </is>
       </c>
     </row>
@@ -17376,7 +17377,7 @@
       </c>
       <c r="F565" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445332</t>
+          <t>2021-10-05 14:34:09.607145</t>
         </is>
       </c>
     </row>
@@ -17406,7 +17407,7 @@
       </c>
       <c r="F566" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445335</t>
+          <t>2021-10-05 14:34:09.607148</t>
         </is>
       </c>
     </row>
@@ -17436,7 +17437,7 @@
       </c>
       <c r="F567" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445337</t>
+          <t>2021-10-05 14:34:09.607151</t>
         </is>
       </c>
     </row>
@@ -17466,7 +17467,7 @@
       </c>
       <c r="F568" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445340</t>
+          <t>2021-10-05 14:34:09.607154</t>
         </is>
       </c>
     </row>
@@ -17496,7 +17497,7 @@
       </c>
       <c r="F569" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445343</t>
+          <t>2021-10-05 14:34:09.607157</t>
         </is>
       </c>
     </row>
@@ -17526,7 +17527,7 @@
       </c>
       <c r="F570" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445345</t>
+          <t>2021-10-05 14:34:09.607160</t>
         </is>
       </c>
     </row>
@@ -17556,7 +17557,7 @@
       </c>
       <c r="F571" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445348</t>
+          <t>2021-10-05 14:34:09.607162</t>
         </is>
       </c>
     </row>
@@ -17586,7 +17587,7 @@
       </c>
       <c r="F572" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445351</t>
+          <t>2021-10-05 14:34:09.607165</t>
         </is>
       </c>
     </row>
@@ -17616,7 +17617,7 @@
       </c>
       <c r="F573" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445353</t>
+          <t>2021-10-05 14:34:09.607168</t>
         </is>
       </c>
     </row>
@@ -17646,7 +17647,7 @@
       </c>
       <c r="F574" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445356</t>
+          <t>2021-10-05 14:34:09.607171</t>
         </is>
       </c>
     </row>
@@ -17676,7 +17677,7 @@
       </c>
       <c r="F575" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445358</t>
+          <t>2021-10-05 14:34:09.607173</t>
         </is>
       </c>
     </row>
@@ -17706,7 +17707,7 @@
       </c>
       <c r="F576" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445361</t>
+          <t>2021-10-05 14:34:09.607176</t>
         </is>
       </c>
     </row>
@@ -17736,7 +17737,7 @@
       </c>
       <c r="F577" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445363</t>
+          <t>2021-10-05 14:34:09.607179</t>
         </is>
       </c>
     </row>
@@ -17766,7 +17767,7 @@
       </c>
       <c r="F578" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445366</t>
+          <t>2021-10-05 14:34:09.607182</t>
         </is>
       </c>
     </row>
@@ -17796,7 +17797,7 @@
       </c>
       <c r="F579" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445368</t>
+          <t>2021-10-05 14:34:09.607184</t>
         </is>
       </c>
     </row>
@@ -17826,7 +17827,7 @@
       </c>
       <c r="F580" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445371</t>
+          <t>2021-10-05 14:34:09.607187</t>
         </is>
       </c>
     </row>
@@ -17856,7 +17857,7 @@
       </c>
       <c r="F581" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445374</t>
+          <t>2021-10-05 14:34:09.607190</t>
         </is>
       </c>
     </row>
@@ -17886,7 +17887,7 @@
       </c>
       <c r="F582" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445376</t>
+          <t>2021-10-05 14:34:09.607193</t>
         </is>
       </c>
     </row>
@@ -17916,7 +17917,7 @@
       </c>
       <c r="F583" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445379</t>
+          <t>2021-10-05 14:34:09.607196</t>
         </is>
       </c>
     </row>
@@ -17946,7 +17947,7 @@
       </c>
       <c r="F584" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445382</t>
+          <t>2021-10-05 14:34:09.607199</t>
         </is>
       </c>
     </row>
@@ -17976,7 +17977,7 @@
       </c>
       <c r="F585" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445384</t>
+          <t>2021-10-05 14:34:09.607201</t>
         </is>
       </c>
     </row>
@@ -18006,7 +18007,7 @@
       </c>
       <c r="F586" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445387</t>
+          <t>2021-10-05 14:34:09.607204</t>
         </is>
       </c>
     </row>
@@ -18036,7 +18037,7 @@
       </c>
       <c r="F587" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445390</t>
+          <t>2021-10-05 14:34:09.607207</t>
         </is>
       </c>
     </row>
@@ -18066,7 +18067,7 @@
       </c>
       <c r="F588" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445392</t>
+          <t>2021-10-05 14:34:09.607209</t>
         </is>
       </c>
     </row>
@@ -18096,7 +18097,7 @@
       </c>
       <c r="F589" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445395</t>
+          <t>2021-10-05 14:34:09.607212</t>
         </is>
       </c>
     </row>
@@ -18126,7 +18127,7 @@
       </c>
       <c r="F590" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445398</t>
+          <t>2021-10-05 14:34:09.607215</t>
         </is>
       </c>
     </row>
@@ -18156,7 +18157,7 @@
       </c>
       <c r="F591" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445401</t>
+          <t>2021-10-05 14:34:09.607218</t>
         </is>
       </c>
     </row>
@@ -18186,7 +18187,7 @@
       </c>
       <c r="F592" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445403</t>
+          <t>2021-10-05 14:34:09.607220</t>
         </is>
       </c>
     </row>
@@ -18216,7 +18217,7 @@
       </c>
       <c r="F593" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445406</t>
+          <t>2021-10-05 14:34:09.607223</t>
         </is>
       </c>
     </row>
@@ -18246,7 +18247,7 @@
       </c>
       <c r="F594" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445410</t>
+          <t>2021-10-05 14:34:09.607227</t>
         </is>
       </c>
     </row>
@@ -18276,7 +18277,7 @@
       </c>
       <c r="F595" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445413</t>
+          <t>2021-10-05 14:34:09.607230</t>
         </is>
       </c>
     </row>
@@ -18306,7 +18307,7 @@
       </c>
       <c r="F596" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445416</t>
+          <t>2021-10-05 14:34:09.607233</t>
         </is>
       </c>
     </row>
@@ -18336,7 +18337,7 @@
       </c>
       <c r="F597" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445418</t>
+          <t>2021-10-05 14:34:09.607236</t>
         </is>
       </c>
     </row>
@@ -18366,7 +18367,7 @@
       </c>
       <c r="F598" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445421</t>
+          <t>2021-10-05 14:34:09.607239</t>
         </is>
       </c>
     </row>
@@ -18396,7 +18397,7 @@
       </c>
       <c r="F599" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445423</t>
+          <t>2021-10-05 14:34:09.607242</t>
         </is>
       </c>
     </row>
@@ -18426,7 +18427,7 @@
       </c>
       <c r="F600" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445426</t>
+          <t>2021-10-05 14:34:09.607244</t>
         </is>
       </c>
     </row>
@@ -18456,7 +18457,7 @@
       </c>
       <c r="F601" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445429</t>
+          <t>2021-10-05 14:34:09.607247</t>
         </is>
       </c>
     </row>
@@ -18486,7 +18487,7 @@
       </c>
       <c r="F602" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445431</t>
+          <t>2021-10-05 14:34:09.607250</t>
         </is>
       </c>
     </row>
@@ -18516,7 +18517,7 @@
       </c>
       <c r="F603" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445434</t>
+          <t>2021-10-05 14:34:09.607253</t>
         </is>
       </c>
     </row>
@@ -18546,7 +18547,7 @@
       </c>
       <c r="F604" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445436</t>
+          <t>2021-10-05 14:34:09.607255</t>
         </is>
       </c>
     </row>
@@ -18576,7 +18577,7 @@
       </c>
       <c r="F605" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445439</t>
+          <t>2021-10-05 14:34:09.607258</t>
         </is>
       </c>
     </row>
@@ -18606,7 +18607,7 @@
       </c>
       <c r="F606" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445442</t>
+          <t>2021-10-05 14:34:09.607261</t>
         </is>
       </c>
     </row>
@@ -18636,7 +18637,7 @@
       </c>
       <c r="F607" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445444</t>
+          <t>2021-10-05 14:34:09.607263</t>
         </is>
       </c>
     </row>
@@ -18666,7 +18667,7 @@
       </c>
       <c r="F608" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445447</t>
+          <t>2021-10-05 14:34:09.607266</t>
         </is>
       </c>
     </row>
@@ -18696,7 +18697,7 @@
       </c>
       <c r="F609" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445450</t>
+          <t>2021-10-05 14:34:09.607269</t>
         </is>
       </c>
     </row>
@@ -18726,7 +18727,7 @@
       </c>
       <c r="F610" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445452</t>
+          <t>2021-10-05 14:34:09.607272</t>
         </is>
       </c>
     </row>
@@ -18756,7 +18757,7 @@
       </c>
       <c r="F611" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445455</t>
+          <t>2021-10-05 14:34:09.607274</t>
         </is>
       </c>
     </row>
@@ -18786,7 +18787,7 @@
       </c>
       <c r="F612" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445458</t>
+          <t>2021-10-05 14:34:09.607277</t>
         </is>
       </c>
     </row>
@@ -18816,7 +18817,7 @@
       </c>
       <c r="F613" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445460</t>
+          <t>2021-10-05 14:34:09.607280</t>
         </is>
       </c>
     </row>
@@ -18846,7 +18847,7 @@
       </c>
       <c r="F614" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445462</t>
+          <t>2021-10-05 14:34:09.607282</t>
         </is>
       </c>
     </row>
@@ -18876,7 +18877,7 @@
       </c>
       <c r="F615" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445465</t>
+          <t>2021-10-05 14:34:09.607285</t>
         </is>
       </c>
     </row>
@@ -18906,7 +18907,7 @@
       </c>
       <c r="F616" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445468</t>
+          <t>2021-10-05 14:34:09.607288</t>
         </is>
       </c>
     </row>
@@ -18936,7 +18937,7 @@
       </c>
       <c r="F617" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445470</t>
+          <t>2021-10-05 14:34:09.607291</t>
         </is>
       </c>
     </row>
@@ -18966,7 +18967,7 @@
       </c>
       <c r="F618" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445473</t>
+          <t>2021-10-05 14:34:09.607293</t>
         </is>
       </c>
     </row>
@@ -18996,7 +18997,7 @@
       </c>
       <c r="F619" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445476</t>
+          <t>2021-10-05 14:34:09.607296</t>
         </is>
       </c>
     </row>
@@ -19026,7 +19027,7 @@
       </c>
       <c r="F620" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445478</t>
+          <t>2021-10-05 14:34:09.607299</t>
         </is>
       </c>
     </row>
@@ -19056,7 +19057,7 @@
       </c>
       <c r="F621" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445481</t>
+          <t>2021-10-05 14:34:09.607302</t>
         </is>
       </c>
     </row>
@@ -19086,7 +19087,7 @@
       </c>
       <c r="F622" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445483</t>
+          <t>2021-10-05 14:34:09.607305</t>
         </is>
       </c>
     </row>
@@ -19116,7 +19117,7 @@
       </c>
       <c r="F623" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445486</t>
+          <t>2021-10-05 14:34:09.607308</t>
         </is>
       </c>
     </row>
@@ -19146,7 +19147,7 @@
       </c>
       <c r="F624" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445488</t>
+          <t>2021-10-05 14:34:09.607310</t>
         </is>
       </c>
     </row>
@@ -19176,7 +19177,7 @@
       </c>
       <c r="F625" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445491</t>
+          <t>2021-10-05 14:34:09.607313</t>
         </is>
       </c>
     </row>
@@ -19206,7 +19207,7 @@
       </c>
       <c r="F626" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445494</t>
+          <t>2021-10-05 14:34:09.607316</t>
         </is>
       </c>
     </row>
@@ -19236,7 +19237,7 @@
       </c>
       <c r="F627" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445496</t>
+          <t>2021-10-05 14:34:09.607319</t>
         </is>
       </c>
     </row>
@@ -19266,7 +19267,7 @@
       </c>
       <c r="F628" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445499</t>
+          <t>2021-10-05 14:34:09.607321</t>
         </is>
       </c>
     </row>
@@ -19296,7 +19297,7 @@
       </c>
       <c r="F629" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445501</t>
+          <t>2021-10-05 14:34:09.607324</t>
         </is>
       </c>
     </row>
@@ -19326,7 +19327,7 @@
       </c>
       <c r="F630" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445504</t>
+          <t>2021-10-05 14:34:09.607327</t>
         </is>
       </c>
     </row>
@@ -19356,7 +19357,7 @@
       </c>
       <c r="F631" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445507</t>
+          <t>2021-10-05 14:34:09.607330</t>
         </is>
       </c>
     </row>
@@ -19386,7 +19387,7 @@
       </c>
       <c r="F632" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445509</t>
+          <t>2021-10-05 14:34:09.607332</t>
         </is>
       </c>
     </row>
@@ -19416,7 +19417,7 @@
       </c>
       <c r="F633" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445512</t>
+          <t>2021-10-05 14:34:09.607335</t>
         </is>
       </c>
     </row>
@@ -19446,7 +19447,7 @@
       </c>
       <c r="F634" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445514</t>
+          <t>2021-10-05 14:34:09.607338</t>
         </is>
       </c>
     </row>
@@ -19476,7 +19477,7 @@
       </c>
       <c r="F635" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445517</t>
+          <t>2021-10-05 14:34:09.607341</t>
         </is>
       </c>
     </row>
@@ -19506,7 +19507,7 @@
       </c>
       <c r="F636" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445519</t>
+          <t>2021-10-05 14:34:09.607344</t>
         </is>
       </c>
     </row>
@@ -19536,7 +19537,7 @@
       </c>
       <c r="F637" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445522</t>
+          <t>2021-10-05 14:34:09.607347</t>
         </is>
       </c>
     </row>
@@ -19566,7 +19567,7 @@
       </c>
       <c r="F638" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445525</t>
+          <t>2021-10-05 14:34:09.607350</t>
         </is>
       </c>
     </row>
@@ -19596,7 +19597,7 @@
       </c>
       <c r="F639" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445528</t>
+          <t>2021-10-05 14:34:09.607353</t>
         </is>
       </c>
     </row>
@@ -19626,7 +19627,7 @@
       </c>
       <c r="F640" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445530</t>
+          <t>2021-10-05 14:34:09.607355</t>
         </is>
       </c>
     </row>
@@ -19656,7 +19657,7 @@
       </c>
       <c r="F641" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445533</t>
+          <t>2021-10-05 14:34:09.607358</t>
         </is>
       </c>
     </row>
@@ -19686,7 +19687,7 @@
       </c>
       <c r="F642" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445536</t>
+          <t>2021-10-05 14:34:09.607361</t>
         </is>
       </c>
     </row>
@@ -19716,7 +19717,7 @@
       </c>
       <c r="F643" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445538</t>
+          <t>2021-10-05 14:34:09.607364</t>
         </is>
       </c>
     </row>
@@ -19746,7 +19747,91 @@
       </c>
       <c r="F644" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:15.445541</t>
+          <t>2021-10-05 14:34:09.607366</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>data_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>data_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>data_version_created</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>panel_query_time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>panel_get_request</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Immunological disorders_SuperPanel</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>239</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2021-09-30T07:44:38.650116Z</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 14:34:09.602288</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://panelapp.agha.umccr.org/api/v1/panels/239/?format=json</t>
         </is>
       </c>
     </row>
